--- a/data/data_set/CORIS_distrattori_annotato.xlsx
+++ b/data/data_set/CORIS_distrattori_annotato.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gretagorzoni/Desktop/TESI_code/data/data_set/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A90174-14DB-8C41-BE86-E7F1BD1DD34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8E130F-2571-4643-86F5-A6A01875AEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{76FAD799-7455-F845-8BB9-5F6B91142D4B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{76FAD799-7455-F845-8BB9-5F6B91142D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="CORIS_nuovo" sheetId="2" r:id="rId1"/>
     <sheet name="Foglio1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">'CORIS_nuovo'!$A$1:$E$960</definedName>
+    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">'CORIS_nuovo'!$A$1:$E$978</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9536" uniqueCount="2490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9698" uniqueCount="2529">
   <si>
     <t>corpo</t>
   </si>
@@ -7499,9 +7499,6 @@
     <t>54 su 54</t>
   </si>
   <si>
-    <t>La presenza delle donne, per lo meno a Ca ' Foscari, è nettamente preponderante: nel 2002 su 11 tirocinanti assegnati alle biblioteche 9 erano di sesso femminile, mentre i dati parziali del 2003 registrano una presenza di</t>
-  </si>
-  <si>
     <t>studentesse.</t>
   </si>
   <si>
@@ -7518,6 +7515,126 @@
   </si>
   <si>
     <t>, non ne vedrà uno.</t>
+  </si>
+  <si>
+    <t>Nella votazione delle due di notte eravamo</t>
+  </si>
+  <si>
+    <t>37 su 37</t>
+  </si>
+  <si>
+    <t>e alla fine è scoppiato un applauso.</t>
+  </si>
+  <si>
+    <t>La presenza delle donne, per lo meno a Ca' Foscari, è nettamente preponderante: nel 2002 su 11 tirocinanti assegnati alle biblioteche 9 erano di sesso femminile, mentre i dati parziali del 2003 registrano una presenza di</t>
+  </si>
+  <si>
+    <t>Utilizzarono questa possibilità soprattutto le femmine (</t>
+  </si>
+  <si>
+    <t>), ma anche alcuni maschi (4 su 12), quindi nel complesso poco più del 50 % della classe.</t>
+  </si>
+  <si>
+    <t>Sarà ricordata come la stagione del</t>
+  </si>
+  <si>
+    <t>: l' intera pallavolo bellunese è retrocessa.</t>
+  </si>
+  <si>
+    <t>No perchè 7 su 9 di jones non è che succede sempre, considerando anche il fatto che fino ad un certo punto era</t>
+  </si>
+  <si>
+    <t>L'ha data già il caso Fiat, bisogna insistere per eliminare anche la mafia, artefice del successo del polo con i</t>
+  </si>
+  <si>
+    <t>61 su 61</t>
+  </si>
+  <si>
+    <t>Lasciamo la presidenza dell' assemblea e sentiamo il nuovo presidente della giunta che in Sicilia si è portato a casa tutti i seggi,</t>
+  </si>
+  <si>
+    <t>Certo le ultime elezioni europee hanno segnato una sconfitta di Berlusconi, il cappotto del</t>
+  </si>
+  <si>
+    <t>(i seggi del parlamento regionale conquistati dalla destra nelle ultime amministrative) appartiene alla memoria del passato.</t>
+  </si>
+  <si>
+    <t>Lo fa in modo incontestabile: chiude con</t>
+  </si>
+  <si>
+    <t>7 su 7</t>
+  </si>
+  <si>
+    <t>dai 6.25 mt per un totale di 29 punti, il tutto in sola metà gara.</t>
+  </si>
+  <si>
+    <t>Sta meglio il secondo anno (43 partite, 11,3 di medie), quando spara un</t>
+  </si>
+  <si>
+    <t>da tre al Madison Square Garden di New York.</t>
+  </si>
+  <si>
+    <t>Gioca 29' e chiude con 20 punti, 0 su 2 da due, 4 su 7 da tre,</t>
+  </si>
+  <si>
+    <t>ai tiri liberi, ben 5 rimbalzi, 4 assist, 25 di valutazione.</t>
+  </si>
+  <si>
+    <t>8 su 8</t>
+  </si>
+  <si>
+    <t>Un giorno si ritrova al campetto, tira fuori il pallone e infila</t>
+  </si>
+  <si>
+    <t>da tre punti: la mano è guarita.</t>
+  </si>
+  <si>
+    <t>Alla risposta: "dovevate o dovevano studiare di più" noi replichiamo in questo modo: "anche se tutti gli studenti avessero preso</t>
+  </si>
+  <si>
+    <t>80 su 80</t>
+  </si>
+  <si>
+    <t>comunque tantissimi sarebbero tornati a casa!</t>
+  </si>
+  <si>
+    <t>Faccia presente che anche se tutta la gente sapesse le cose benissimo, da prendere</t>
+  </si>
+  <si>
+    <t>comunque tantissima gente dovrebbe tornare a casa.</t>
+  </si>
+  <si>
+    <t>A Lecco si è registrato una adesione del 100 per cento (hanno scioperato 19 su 19) così come al tribunale di sorveglianza di Milano (</t>
+  </si>
+  <si>
+    <t>9 su 9</t>
+  </si>
+  <si>
+    <t>90 su 90</t>
+  </si>
+  <si>
+    <t>Una volta fatto il gruppo (non esagerare con le unita' di supporto tanto, tra quelle in difesa e quelle prodotte sarai quasi a</t>
+  </si>
+  <si>
+    <t>) prendi la strada in alto a destra.</t>
+  </si>
+  <si>
+    <t>Il telefono è attivo</t>
+  </si>
+  <si>
+    <t>con segreteria telefonica.</t>
+  </si>
+  <si>
+    <t>Scorta raddoppiata, casa sorvegliata</t>
+  </si>
+  <si>
+    <t>e lui cosa fa?</t>
+  </si>
+  <si>
+    <t>Un ospedale di Pittsburgh fornisce addirittura una stazione televisiva chiamata "Humor Helps Healing" (l'umorismo aiuta a guarire), che trasmette</t>
+  </si>
+  <si>
+    <t>, mentre in South Carolina, i "terapisti dell' umorismo" hanno formato la Carolina Humour and Healing Association (HaHa).</t>
   </si>
 </sst>
 </file>
@@ -7639,7 +7756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -7659,8 +7776,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7727,10 +7847,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB9FE2EE-6792-EC47-A5CA-A399CC86D6A3}" name="CORIS_nuovo" displayName="CORIS_nuovo" ref="A1:K960" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K960" xr:uid="{AB9FE2EE-6792-EC47-A5CA-A399CC86D6A3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K960">
-    <sortCondition ref="C1:C960"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB9FE2EE-6792-EC47-A5CA-A399CC86D6A3}" name="CORIS_nuovo" displayName="CORIS_nuovo" ref="A1:K978" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K978" xr:uid="{AB9FE2EE-6792-EC47-A5CA-A399CC86D6A3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K978">
+    <sortCondition ref="C1:C978"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{FC78F014-3A44-3041-B260-48E7B28C900C}" uniqueName="1" name="NPN" queryTableFieldId="1" dataDxfId="8"/>
@@ -8066,10 +8186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189D8F4F-E7A4-9F42-9B5D-64610C20AE06}">
-  <dimension ref="A1:K960"/>
+  <dimension ref="A1:K978"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A784" zoomScale="115" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C817" sqref="C817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12262,7 +12382,7 @@
       <c r="K128" s="1"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="15" t="s">
+      <c r="A129" t="s">
         <v>436</v>
       </c>
       <c r="B129" t="s">
@@ -12277,7 +12397,7 @@
       <c r="E129" t="s">
         <v>445</v>
       </c>
-      <c r="F129" s="15" t="s">
+      <c r="F129" t="s">
         <v>436</v>
       </c>
       <c r="G129" s="2" t="s">
@@ -12295,7 +12415,7 @@
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="15" t="s">
+      <c r="A130" t="s">
         <v>436</v>
       </c>
       <c r="B130" t="s">
@@ -12310,7 +12430,7 @@
       <c r="E130" t="s">
         <v>447</v>
       </c>
-      <c r="F130" s="15" t="s">
+      <c r="F130" t="s">
         <v>436</v>
       </c>
       <c r="G130" s="2" t="s">
@@ -14517,13 +14637,13 @@
         <v>591</v>
       </c>
       <c r="E197" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>590</v>
       </c>
       <c r="G197" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="H197" t="s">
         <v>15</v>
@@ -14570,7 +14690,7 @@
       <c r="K198" s="1"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="16" t="s">
+      <c r="A199" t="s">
         <v>119</v>
       </c>
       <c r="B199" t="s">
@@ -14603,7 +14723,7 @@
       <c r="K199" s="1"/>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="16" t="s">
+      <c r="A200" t="s">
         <v>119</v>
       </c>
       <c r="B200" t="s">
@@ -14636,7 +14756,7 @@
       <c r="K200" s="1"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="16" t="s">
+      <c r="A201" t="s">
         <v>119</v>
       </c>
       <c r="B201" t="s">
@@ -14669,7 +14789,7 @@
       <c r="K201" s="1"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="16" t="s">
+      <c r="A202" t="s">
         <v>119</v>
       </c>
       <c r="B202" t="s">
@@ -14702,7 +14822,7 @@
       <c r="K202" s="1"/>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="16" t="s">
+      <c r="A203" t="s">
         <v>119</v>
       </c>
       <c r="B203" t="s">
@@ -14735,7 +14855,7 @@
       <c r="K203" s="1"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="16" t="s">
+      <c r="A204" t="s">
         <v>119</v>
       </c>
       <c r="B204" t="s">
@@ -14768,7 +14888,7 @@
       <c r="K204" s="1"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="16" t="s">
+      <c r="A205" t="s">
         <v>119</v>
       </c>
       <c r="B205" t="s">
@@ -14801,7 +14921,7 @@
       <c r="K205" s="1"/>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="16" t="s">
+      <c r="A206" t="s">
         <v>119</v>
       </c>
       <c r="B206" t="s">
@@ -27548,10 +27668,10 @@
       <c r="A597" t="s">
         <v>1452</v>
       </c>
-      <c r="B597" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C597" s="15" t="s">
+      <c r="B597" t="s">
+        <v>184</v>
+      </c>
+      <c r="C597" t="s">
         <v>1</v>
       </c>
       <c r="D597" s="3" t="s">
@@ -27580,10 +27700,10 @@
       <c r="A598" t="s">
         <v>1459</v>
       </c>
-      <c r="B598" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C598" s="15" t="s">
+      <c r="B598" t="s">
+        <v>184</v>
+      </c>
+      <c r="C598" t="s">
         <v>1</v>
       </c>
       <c r="D598" s="3" t="s">
@@ -35211,7 +35331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="833" spans="1:10">
+    <row r="833" spans="1:11">
       <c r="A833" t="s">
         <v>2439</v>
       </c>
@@ -35243,7 +35363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="834" spans="1:10">
+    <row r="834" spans="1:11">
       <c r="A834" t="s">
         <v>2439</v>
       </c>
@@ -35275,7 +35395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="835" spans="1:10">
+    <row r="835" spans="1:11">
       <c r="A835" t="s">
         <v>2130</v>
       </c>
@@ -35307,7 +35427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="836" spans="1:10">
+    <row r="836" spans="1:11">
       <c r="A836" t="s">
         <v>2130</v>
       </c>
@@ -35339,7 +35459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="837" spans="1:10">
+    <row r="837" spans="1:11">
       <c r="A837" t="s">
         <v>2130</v>
       </c>
@@ -35371,7 +35491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="838" spans="1:10">
+    <row r="838" spans="1:11">
       <c r="A838" t="s">
         <v>2130</v>
       </c>
@@ -35403,7 +35523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="839" spans="1:10">
+    <row r="839" spans="1:11">
       <c r="A839" t="s">
         <v>2130</v>
       </c>
@@ -35435,7 +35555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="840" spans="1:10">
+    <row r="840" spans="1:11">
       <c r="A840" t="s">
         <v>2453</v>
       </c>
@@ -35467,7 +35587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="841" spans="1:10">
+    <row r="841" spans="1:11">
       <c r="A841" t="s">
         <v>2453</v>
       </c>
@@ -35499,7 +35619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="842" spans="1:10">
+    <row r="842" spans="1:11">
       <c r="A842" t="s">
         <v>2458</v>
       </c>
@@ -35531,7 +35651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="843" spans="1:10">
+    <row r="843" spans="1:11">
       <c r="A843" t="s">
         <v>2458</v>
       </c>
@@ -35563,9 +35683,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="844" spans="1:10">
+    <row r="844" spans="1:11">
       <c r="A844" t="s">
-        <v>2048</v>
+        <v>2458</v>
       </c>
       <c r="B844" s="13" t="s">
         <v>184</v>
@@ -35574,16 +35694,16 @@
         <v>129</v>
       </c>
       <c r="D844" s="14">
-        <v>3</v>
-      </c>
-      <c r="E844" t="s">
-        <v>2462</v>
+        <v>24</v>
+      </c>
+      <c r="E844" s="15" t="s">
+        <v>2523</v>
       </c>
       <c r="F844" t="s">
-        <v>2048</v>
+        <v>2458</v>
       </c>
       <c r="G844" s="2" t="s">
-        <v>2463</v>
+        <v>2524</v>
       </c>
       <c r="H844" s="13" t="s">
         <v>2111</v>
@@ -35595,9 +35715,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="845" spans="1:10">
+    <row r="845" spans="1:11">
       <c r="A845" t="s">
-        <v>2048</v>
+        <v>2458</v>
       </c>
       <c r="B845" s="13" t="s">
         <v>184</v>
@@ -35606,16 +35726,16 @@
         <v>129</v>
       </c>
       <c r="D845" s="14">
-        <v>3</v>
-      </c>
-      <c r="E845" t="s">
-        <v>2464</v>
+        <v>24</v>
+      </c>
+      <c r="E845" s="15" t="s">
+        <v>2525</v>
       </c>
       <c r="F845" t="s">
-        <v>2048</v>
+        <v>2458</v>
       </c>
       <c r="G845" s="2" t="s">
-        <v>2465</v>
+        <v>2526</v>
       </c>
       <c r="H845" s="13" t="s">
         <v>2111</v>
@@ -35626,10 +35746,11 @@
       <c r="J845" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="846" spans="1:10">
+      <c r="K845" s="15"/>
+    </row>
+    <row r="846" spans="1:11">
       <c r="A846" t="s">
-        <v>2048</v>
+        <v>2458</v>
       </c>
       <c r="B846" s="13" t="s">
         <v>184</v>
@@ -35638,16 +35759,16 @@
         <v>129</v>
       </c>
       <c r="D846" s="14">
-        <v>3</v>
-      </c>
-      <c r="E846" t="s">
-        <v>2466</v>
+        <v>24</v>
+      </c>
+      <c r="E846" s="15" t="s">
+        <v>2527</v>
       </c>
       <c r="F846" t="s">
-        <v>2048</v>
+        <v>2458</v>
       </c>
       <c r="G846" s="2" t="s">
-        <v>2467</v>
+        <v>2528</v>
       </c>
       <c r="H846" s="13" t="s">
         <v>2111</v>
@@ -35658,10 +35779,11 @@
       <c r="J846" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="847" spans="1:10">
+      <c r="K846" s="15"/>
+    </row>
+    <row r="847" spans="1:11">
       <c r="A847" t="s">
-        <v>2479</v>
+        <v>2048</v>
       </c>
       <c r="B847" s="13" t="s">
         <v>184</v>
@@ -35670,16 +35792,16 @@
         <v>129</v>
       </c>
       <c r="D847" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E847" t="s">
-        <v>2478</v>
+        <v>2462</v>
       </c>
       <c r="F847" t="s">
-        <v>2479</v>
+        <v>2048</v>
       </c>
       <c r="G847" s="2" t="s">
-        <v>2480</v>
+        <v>2463</v>
       </c>
       <c r="H847" s="13" t="s">
         <v>2111</v>
@@ -35691,9 +35813,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="848" spans="1:10">
+    <row r="848" spans="1:11">
       <c r="A848" t="s">
-        <v>2468</v>
+        <v>2048</v>
       </c>
       <c r="B848" s="13" t="s">
         <v>184</v>
@@ -35702,13 +35824,16 @@
         <v>129</v>
       </c>
       <c r="D848" s="14">
-        <v>351</v>
+        <v>3</v>
+      </c>
+      <c r="E848" t="s">
+        <v>2464</v>
       </c>
       <c r="F848" t="s">
-        <v>2468</v>
+        <v>2048</v>
       </c>
       <c r="G848" s="2" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
       <c r="H848" s="13" t="s">
         <v>2111</v>
@@ -35720,9 +35845,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="849" spans="1:10">
+    <row r="849" spans="1:11">
       <c r="A849" t="s">
-        <v>2471</v>
+        <v>2048</v>
       </c>
       <c r="B849" s="13" t="s">
         <v>184</v>
@@ -35731,16 +35856,16 @@
         <v>129</v>
       </c>
       <c r="D849" s="14">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E849" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="F849" t="s">
-        <v>2471</v>
+        <v>2048</v>
       </c>
       <c r="G849" s="2" t="s">
-        <v>2472</v>
+        <v>2467</v>
       </c>
       <c r="H849" s="13" t="s">
         <v>2111</v>
@@ -35752,9 +35877,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="850" spans="1:10">
+    <row r="850" spans="1:11">
       <c r="A850" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="B850" s="13" t="s">
         <v>184</v>
@@ -35763,16 +35888,16 @@
         <v>129</v>
       </c>
       <c r="D850" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E850" t="s">
-        <v>2473</v>
+        <v>2478</v>
       </c>
       <c r="F850" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="G850" s="2" t="s">
-        <v>2474</v>
+        <v>2480</v>
       </c>
       <c r="H850" s="13" t="s">
         <v>2111</v>
@@ -35784,9 +35909,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="851" spans="1:10">
+    <row r="851" spans="1:11">
       <c r="A851" t="s">
-        <v>2475</v>
+        <v>2468</v>
       </c>
       <c r="B851" s="13" t="s">
         <v>184</v>
@@ -35795,16 +35920,13 @@
         <v>129</v>
       </c>
       <c r="D851" s="14">
-        <v>4</v>
-      </c>
-      <c r="E851" t="s">
-        <v>2476</v>
+        <v>351</v>
       </c>
       <c r="F851" t="s">
-        <v>2475</v>
+        <v>2468</v>
       </c>
       <c r="G851" s="2" t="s">
-        <v>2477</v>
+        <v>2469</v>
       </c>
       <c r="H851" s="13" t="s">
         <v>2111</v>
@@ -35816,9 +35938,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="852" spans="1:10">
+    <row r="852" spans="1:11">
       <c r="A852" t="s">
-        <v>2482</v>
+        <v>2471</v>
       </c>
       <c r="B852" s="13" t="s">
         <v>184</v>
@@ -35827,16 +35949,16 @@
         <v>129</v>
       </c>
       <c r="D852" s="14">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E852" t="s">
-        <v>2481</v>
+        <v>2470</v>
       </c>
       <c r="F852" t="s">
-        <v>2482</v>
+        <v>2471</v>
       </c>
       <c r="G852" s="2" t="s">
-        <v>20</v>
+        <v>2472</v>
       </c>
       <c r="H852" s="13" t="s">
         <v>2111</v>
@@ -35848,9 +35970,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="853" spans="1:10">
+    <row r="853" spans="1:11">
       <c r="A853" t="s">
-        <v>2485</v>
+        <v>2475</v>
       </c>
       <c r="B853" s="13" t="s">
         <v>184</v>
@@ -35859,16 +35981,16 @@
         <v>129</v>
       </c>
       <c r="D853" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E853" t="s">
-        <v>2483</v>
+        <v>2473</v>
       </c>
       <c r="F853" t="s">
-        <v>2485</v>
+        <v>2475</v>
       </c>
       <c r="G853" s="2" t="s">
-        <v>2484</v>
+        <v>2474</v>
       </c>
       <c r="H853" s="13" t="s">
         <v>2111</v>
@@ -35880,9 +36002,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="854" spans="1:10">
+    <row r="854" spans="1:11">
       <c r="A854" t="s">
-        <v>2485</v>
+        <v>2475</v>
       </c>
       <c r="B854" s="13" t="s">
         <v>184</v>
@@ -35891,16 +36013,16 @@
         <v>129</v>
       </c>
       <c r="D854" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E854" t="s">
-        <v>2486</v>
+        <v>2476</v>
       </c>
       <c r="F854" t="s">
-        <v>2485</v>
+        <v>2475</v>
       </c>
       <c r="G854" s="2" t="s">
-        <v>2487</v>
+        <v>2477</v>
       </c>
       <c r="H854" s="13" t="s">
         <v>2111</v>
@@ -35912,9 +36034,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="855" spans="1:10">
+    <row r="855" spans="1:11">
       <c r="A855" t="s">
-        <v>2049</v>
+        <v>2482</v>
       </c>
       <c r="B855" s="13" t="s">
         <v>184</v>
@@ -35922,575 +36044,590 @@
       <c r="C855" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D855" t="s">
-        <v>2135</v>
+      <c r="D855" s="14">
+        <v>54</v>
       </c>
       <c r="E855" t="s">
-        <v>2132</v>
+        <v>2481</v>
       </c>
       <c r="F855" t="s">
-        <v>2049</v>
-      </c>
-      <c r="G855" t="s">
-        <v>2404</v>
+        <v>2482</v>
+      </c>
+      <c r="G855" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H855" s="13" t="s">
         <v>2111</v>
       </c>
-      <c r="I855" t="s">
-        <v>2407</v>
+      <c r="I855" s="13" t="s">
+        <v>2126</v>
       </c>
       <c r="J855" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="856" spans="1:10">
+    <row r="856" spans="1:11">
       <c r="A856" t="s">
-        <v>2050</v>
-      </c>
-      <c r="B856" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C856" s="12" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B856" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C856" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D856" t="s">
-        <v>2136</v>
+      <c r="D856" s="14">
+        <v>6</v>
       </c>
       <c r="E856" t="s">
-        <v>2134</v>
+        <v>2492</v>
       </c>
       <c r="F856" t="s">
-        <v>2050</v>
-      </c>
-      <c r="G856" t="s">
-        <v>2133</v>
+        <v>2484</v>
+      </c>
+      <c r="G856" s="2" t="s">
+        <v>2483</v>
       </c>
       <c r="H856" s="13" t="s">
         <v>2111</v>
       </c>
-      <c r="I856" t="s">
-        <v>2407</v>
-      </c>
-      <c r="J856" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="857" spans="1:10">
+      <c r="I856" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J856" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="857" spans="1:11">
       <c r="A857" t="s">
-        <v>2051</v>
-      </c>
-      <c r="B857" t="s">
-        <v>184</v>
-      </c>
-      <c r="C857" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B857" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C857" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D857" t="s">
-        <v>2142</v>
+      <c r="D857" s="14">
+        <v>6</v>
       </c>
       <c r="E857" t="s">
-        <v>2161</v>
+        <v>2485</v>
       </c>
       <c r="F857" t="s">
-        <v>2051</v>
-      </c>
-      <c r="G857" t="s">
-        <v>2160</v>
-      </c>
-      <c r="H857" t="s">
-        <v>135</v>
-      </c>
-      <c r="I857" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J857" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="858" spans="1:10">
+        <v>2484</v>
+      </c>
+      <c r="G857" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="H857" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I857" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J857" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="858" spans="1:11">
       <c r="A858" t="s">
-        <v>133</v>
-      </c>
-      <c r="B858" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C858" s="12" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B858" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C858" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D858" t="s">
-        <v>2139</v>
-      </c>
-      <c r="E858" t="s">
-        <v>2138</v>
+      <c r="D858" s="14">
+        <v>6</v>
+      </c>
+      <c r="E858" s="15" t="s">
+        <v>2493</v>
       </c>
       <c r="F858" t="s">
-        <v>133</v>
-      </c>
-      <c r="G858" t="s">
-        <v>2137</v>
-      </c>
-      <c r="H858" t="s">
-        <v>135</v>
-      </c>
-      <c r="I858" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J858" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="859" spans="1:10">
+        <v>2484</v>
+      </c>
+      <c r="G858" s="2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H858" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I858" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J858" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K858" s="15"/>
+    </row>
+    <row r="859" spans="1:11">
       <c r="A859" t="s">
-        <v>148</v>
-      </c>
-      <c r="B859" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C859" s="12" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B859" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C859" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D859" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E859" t="s">
-        <v>2141</v>
+      <c r="D859" s="14">
+        <v>6</v>
+      </c>
+      <c r="E859" s="15" t="s">
+        <v>2495</v>
       </c>
       <c r="F859" t="s">
-        <v>148</v>
-      </c>
-      <c r="G859" t="s">
-        <v>2140</v>
-      </c>
-      <c r="H859" t="s">
-        <v>135</v>
-      </c>
-      <c r="I859" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J859" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="860" spans="1:10">
+        <v>2484</v>
+      </c>
+      <c r="G859" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="H859" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I859" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J859" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K859" s="15"/>
+    </row>
+    <row r="860" spans="1:11">
       <c r="A860" t="s">
-        <v>2052</v>
-      </c>
-      <c r="B860" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C860" s="12" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B860" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C860" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D860" t="s">
-        <v>2145</v>
-      </c>
-      <c r="E860" t="s">
-        <v>2144</v>
+      <c r="D860" s="14">
+        <v>6</v>
+      </c>
+      <c r="E860" s="15" t="s">
+        <v>2497</v>
       </c>
       <c r="F860" t="s">
-        <v>2052</v>
-      </c>
-      <c r="G860" t="s">
-        <v>2143</v>
-      </c>
-      <c r="H860" s="12" t="s">
+        <v>2484</v>
+      </c>
+      <c r="G860" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H860" s="13" t="s">
         <v>2111</v>
       </c>
-      <c r="I860" t="s">
-        <v>2406</v>
-      </c>
-      <c r="J860" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="861" spans="1:10">
-      <c r="A861" t="s">
-        <v>2068</v>
-      </c>
-      <c r="B861" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C861" s="12" t="s">
+      <c r="I860" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J860" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K860" s="15"/>
+    </row>
+    <row r="861" spans="1:11">
+      <c r="A861" s="15" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B861" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C861" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D861" t="s">
-        <v>2146</v>
-      </c>
-      <c r="E861" t="s">
-        <v>2159</v>
-      </c>
-      <c r="F861" t="s">
-        <v>2068</v>
-      </c>
-      <c r="G861" t="s">
-        <v>2158</v>
-      </c>
-      <c r="H861" t="s">
-        <v>15</v>
-      </c>
-      <c r="I861" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J861" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="862" spans="1:10">
-      <c r="A862" t="s">
-        <v>2053</v>
-      </c>
-      <c r="B862" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C862" s="12" t="s">
+      <c r="D861" s="17">
+        <v>37</v>
+      </c>
+      <c r="E861" s="15" t="s">
+        <v>2489</v>
+      </c>
+      <c r="F861" s="15" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G861" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H861" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I861" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J861" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K861" s="15"/>
+    </row>
+    <row r="862" spans="1:11">
+      <c r="A862" s="15" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B862" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C862" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D862" t="s">
-        <v>2147</v>
-      </c>
-      <c r="E862" t="s">
-        <v>2157</v>
-      </c>
-      <c r="F862" t="s">
-        <v>2053</v>
+      <c r="D862" s="17">
+        <v>61</v>
+      </c>
+      <c r="E862" s="15" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F862" s="15" t="s">
+        <v>2499</v>
       </c>
       <c r="G862" s="2" t="s">
-        <v>2156</v>
-      </c>
-      <c r="H862" t="s">
-        <v>2148</v>
-      </c>
-      <c r="I862" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J862" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="863" spans="1:10">
-      <c r="A863" t="s">
-        <v>2054</v>
-      </c>
-      <c r="B863" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C863" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H862" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I862" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J862" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K862" s="15"/>
+    </row>
+    <row r="863" spans="1:11">
+      <c r="A863" s="15" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B863" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C863" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D863" t="s">
-        <v>2149</v>
-      </c>
-      <c r="E863" t="s">
-        <v>2155</v>
-      </c>
-      <c r="F863" t="s">
-        <v>2054</v>
-      </c>
-      <c r="G863" t="s">
-        <v>2154</v>
-      </c>
-      <c r="H863" t="s">
+      <c r="D863" s="17">
+        <v>61</v>
+      </c>
+      <c r="E863" s="15" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F863" s="15" t="s">
+        <v>2499</v>
+      </c>
+      <c r="G863" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H863" s="13" t="s">
         <v>2111</v>
       </c>
-      <c r="I863" t="s">
-        <v>2407</v>
-      </c>
-      <c r="J863" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="864" spans="1:10">
-      <c r="A864" t="s">
-        <v>2055</v>
-      </c>
-      <c r="B864" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C864" s="12" t="s">
+      <c r="I863" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J863" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K863" s="15"/>
+    </row>
+    <row r="864" spans="1:11">
+      <c r="A864" s="15" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B864" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C864" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D864" t="s">
-        <v>2150</v>
-      </c>
-      <c r="E864" t="s">
-        <v>2153</v>
-      </c>
-      <c r="F864" t="s">
-        <v>2151</v>
-      </c>
-      <c r="G864" t="s">
-        <v>2152</v>
-      </c>
-      <c r="H864" t="s">
-        <v>135</v>
-      </c>
-      <c r="I864" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J864" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="865" spans="1:10">
-      <c r="A865" t="s">
-        <v>2056</v>
-      </c>
-      <c r="B865" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C865" s="12" t="s">
+      <c r="D864" s="17">
+        <v>61</v>
+      </c>
+      <c r="E864" s="15" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F864" s="15" t="s">
+        <v>2499</v>
+      </c>
+      <c r="G864" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="H864" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I864" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J864" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K864" s="15"/>
+    </row>
+    <row r="865" spans="1:11">
+      <c r="A865" s="15" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B865" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C865" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D865" t="s">
-        <v>2164</v>
-      </c>
-      <c r="E865" t="s">
-        <v>2163</v>
-      </c>
-      <c r="F865" t="s">
-        <v>2056</v>
-      </c>
-      <c r="G865" t="s">
-        <v>2162</v>
-      </c>
-      <c r="H865" t="s">
-        <v>15</v>
-      </c>
-      <c r="I865" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J865" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="866" spans="1:10">
-      <c r="A866" t="s">
-        <v>2057</v>
-      </c>
-      <c r="B866" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C866" s="13" t="s">
+      <c r="D865" s="17">
+        <v>7</v>
+      </c>
+      <c r="E865" s="15" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F865" s="15" t="s">
+        <v>2504</v>
+      </c>
+      <c r="G865" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="H865" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I865" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J865" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K865" s="15"/>
+    </row>
+    <row r="866" spans="1:11">
+      <c r="A866" s="15" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B866" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C866" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D866" t="s">
-        <v>2165</v>
-      </c>
-      <c r="E866" t="s">
-        <v>2166</v>
-      </c>
-      <c r="F866" t="s">
-        <v>2057</v>
-      </c>
-      <c r="G866" t="s">
-        <v>20</v>
-      </c>
-      <c r="H866" t="s">
+      <c r="D866" s="17">
+        <v>7</v>
+      </c>
+      <c r="E866" s="15" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F866" s="15" t="s">
+        <v>2504</v>
+      </c>
+      <c r="G866" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="H866" s="13" t="s">
         <v>2111</v>
       </c>
-      <c r="I866" t="s">
-        <v>2407</v>
+      <c r="I866" s="13" t="s">
+        <v>2126</v>
       </c>
       <c r="J866" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="867" spans="1:10">
-      <c r="A867" t="s">
-        <v>2058</v>
-      </c>
-      <c r="B867" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C867" s="13" t="s">
+      <c r="K866" s="15"/>
+    </row>
+    <row r="867" spans="1:11">
+      <c r="A867" s="15" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B867" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C867" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D867" t="s">
-        <v>2167</v>
-      </c>
-      <c r="E867" t="s">
-        <v>2169</v>
-      </c>
-      <c r="F867" t="s">
-        <v>2058</v>
-      </c>
-      <c r="G867" t="s">
-        <v>2168</v>
-      </c>
-      <c r="H867" t="s">
+      <c r="D867" s="17">
+        <v>8</v>
+      </c>
+      <c r="E867" s="15" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F867" s="15" t="s">
+        <v>2510</v>
+      </c>
+      <c r="G867" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="H867" s="13" t="s">
         <v>2111</v>
       </c>
-      <c r="I867" t="s">
-        <v>2407</v>
-      </c>
-      <c r="J867" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="868" spans="1:10">
-      <c r="A868" t="s">
-        <v>2059</v>
-      </c>
-      <c r="B868" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C868" s="13" t="s">
+      <c r="I867" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J867" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K867" s="15"/>
+    </row>
+    <row r="868" spans="1:11">
+      <c r="A868" s="15" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B868" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C868" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D868" t="s">
-        <v>2170</v>
-      </c>
-      <c r="E868" t="s">
-        <v>2173</v>
-      </c>
-      <c r="F868" t="s">
-        <v>2171</v>
-      </c>
-      <c r="G868" t="s">
-        <v>2172</v>
-      </c>
-      <c r="H868" t="s">
+      <c r="D868" s="17">
+        <v>8</v>
+      </c>
+      <c r="E868" s="15" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F868" s="15" t="s">
+        <v>2510</v>
+      </c>
+      <c r="G868" s="2" t="s">
+        <v>2512</v>
+      </c>
+      <c r="H868" s="13" t="s">
         <v>2111</v>
       </c>
-      <c r="I868" t="s">
-        <v>2406</v>
-      </c>
-      <c r="J868" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="869" spans="1:10">
-      <c r="A869" t="s">
-        <v>2060</v>
-      </c>
-      <c r="B869" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C869" s="13" t="s">
+      <c r="I868" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J868" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K868" s="15"/>
+    </row>
+    <row r="869" spans="1:11">
+      <c r="A869" s="15" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B869" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C869" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D869" t="s">
-        <v>2174</v>
-      </c>
-      <c r="E869" t="s">
-        <v>2177</v>
-      </c>
-      <c r="F869" t="s">
-        <v>2060</v>
-      </c>
-      <c r="G869" t="s">
-        <v>2176</v>
-      </c>
-      <c r="H869" t="s">
-        <v>15</v>
-      </c>
-      <c r="I869" t="s">
-        <v>2406</v>
-      </c>
-      <c r="J869" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="870" spans="1:10">
-      <c r="A870" t="s">
-        <v>2061</v>
-      </c>
-      <c r="B870" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C870" s="13" t="s">
+      <c r="D869" s="17">
+        <v>80</v>
+      </c>
+      <c r="E869" s="15" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F869" s="15" t="s">
+        <v>2514</v>
+      </c>
+      <c r="G869" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="H869" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I869" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J869" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K869" s="15"/>
+    </row>
+    <row r="870" spans="1:11">
+      <c r="A870" s="15" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B870" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C870" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D870" t="s">
-        <v>2175</v>
-      </c>
-      <c r="E870" t="s">
-        <v>2178</v>
-      </c>
-      <c r="F870" t="s">
-        <v>2061</v>
-      </c>
-      <c r="G870" t="s">
-        <v>20</v>
-      </c>
-      <c r="H870" t="s">
-        <v>15</v>
-      </c>
-      <c r="I870" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J870" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="871" spans="1:10">
-      <c r="A871" t="s">
-        <v>2062</v>
-      </c>
-      <c r="B871" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C871" s="13" t="s">
+      <c r="D870" s="17">
+        <v>80</v>
+      </c>
+      <c r="E870" s="15" t="s">
+        <v>2516</v>
+      </c>
+      <c r="F870" s="15" t="s">
+        <v>2514</v>
+      </c>
+      <c r="G870" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="H870" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I870" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J870" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K870" s="15"/>
+    </row>
+    <row r="871" spans="1:11">
+      <c r="A871" s="15" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B871" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C871" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D871" t="s">
-        <v>2179</v>
-      </c>
-      <c r="E871" t="s">
-        <v>2181</v>
-      </c>
-      <c r="F871" s="3" t="s">
-        <v>2062</v>
-      </c>
-      <c r="G871" t="s">
-        <v>2180</v>
-      </c>
-      <c r="H871" t="s">
-        <v>15</v>
-      </c>
-      <c r="I871" t="s">
-        <v>2407</v>
-      </c>
-      <c r="J871" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="872" spans="1:10">
-      <c r="A872" t="s">
-        <v>2063</v>
-      </c>
-      <c r="B872" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C872" s="13" t="s">
+      <c r="D871" s="17">
+        <v>9</v>
+      </c>
+      <c r="E871" s="15" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F871" s="15" t="s">
+        <v>2519</v>
+      </c>
+      <c r="G871" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H871" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I871" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J871" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K871" s="15"/>
+    </row>
+    <row r="872" spans="1:11">
+      <c r="A872" s="15" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B872" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C872" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D872" t="s">
-        <v>2182</v>
-      </c>
-      <c r="E872" t="s">
-        <v>2186</v>
-      </c>
-      <c r="F872" t="s">
-        <v>2063</v>
-      </c>
-      <c r="G872" t="s">
-        <v>2185</v>
-      </c>
-      <c r="H872" t="s">
-        <v>15</v>
-      </c>
-      <c r="I872" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J872" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="873" spans="1:10">
+      <c r="D872" s="17">
+        <v>90</v>
+      </c>
+      <c r="E872" s="15" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F872" s="15" t="s">
+        <v>2520</v>
+      </c>
+      <c r="G872" s="2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="H872" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I872" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J872" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K872" s="15"/>
+    </row>
+    <row r="873" spans="1:11">
       <c r="A873" t="s">
-        <v>2064</v>
+        <v>2049</v>
       </c>
       <c r="B873" s="13" t="s">
         <v>184</v>
@@ -36499,144 +36636,147 @@
         <v>129</v>
       </c>
       <c r="D873" t="s">
-        <v>2183</v>
+        <v>2135</v>
       </c>
       <c r="E873" t="s">
-        <v>2189</v>
+        <v>2132</v>
       </c>
       <c r="F873" t="s">
-        <v>2187</v>
+        <v>2049</v>
       </c>
       <c r="G873" t="s">
-        <v>2188</v>
-      </c>
-      <c r="H873" t="s">
-        <v>15</v>
+        <v>2404</v>
+      </c>
+      <c r="H873" s="13" t="s">
+        <v>2111</v>
       </c>
       <c r="I873" t="s">
-        <v>2406</v>
-      </c>
-      <c r="J873" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="874" spans="1:10">
+        <v>2407</v>
+      </c>
+      <c r="J873" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="874" spans="1:11">
       <c r="A874" t="s">
-        <v>2046</v>
-      </c>
-      <c r="B874" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C874" s="13" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B874" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C874" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D874" t="s">
-        <v>2184</v>
+        <v>2136</v>
       </c>
       <c r="E874" t="s">
-        <v>2191</v>
+        <v>2134</v>
       </c>
       <c r="F874" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="G874" t="s">
-        <v>2190</v>
-      </c>
-      <c r="H874" t="s">
-        <v>15</v>
+        <v>2133</v>
+      </c>
+      <c r="H874" s="13" t="s">
+        <v>2111</v>
       </c>
       <c r="I874" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="875" spans="1:10">
+        <v>2407</v>
+      </c>
+      <c r="J874" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="875" spans="1:11">
       <c r="A875" t="s">
-        <v>2062</v>
-      </c>
-      <c r="B875" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C875" s="13" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B875" t="s">
+        <v>184</v>
+      </c>
+      <c r="C875" t="s">
         <v>129</v>
       </c>
       <c r="D875" t="s">
-        <v>2179</v>
+        <v>2142</v>
       </c>
       <c r="E875" t="s">
-        <v>2193</v>
+        <v>2161</v>
       </c>
       <c r="F875" t="s">
-        <v>2062</v>
+        <v>2051</v>
       </c>
       <c r="G875" t="s">
-        <v>2192</v>
+        <v>2160</v>
       </c>
       <c r="H875" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I875" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="J875" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="876" spans="1:10">
+    <row r="876" spans="1:11">
       <c r="A876" t="s">
-        <v>2065</v>
-      </c>
-      <c r="B876" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C876" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B876" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C876" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D876" t="s">
-        <v>2196</v>
+        <v>2139</v>
       </c>
       <c r="E876" t="s">
-        <v>2195</v>
+        <v>2138</v>
       </c>
       <c r="F876" t="s">
-        <v>2065</v>
+        <v>133</v>
       </c>
       <c r="G876" t="s">
-        <v>2194</v>
+        <v>2137</v>
       </c>
       <c r="H876" t="s">
         <v>135</v>
       </c>
       <c r="I876" t="s">
-        <v>2197</v>
-      </c>
-      <c r="J876" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="877" spans="1:10">
+        <v>2405</v>
+      </c>
+      <c r="J876" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="877" spans="1:11">
       <c r="A877" t="s">
-        <v>2066</v>
-      </c>
-      <c r="B877" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C877" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B877" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C877" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D877" t="s">
-        <v>2198</v>
+        <v>1742</v>
       </c>
       <c r="E877" t="s">
-        <v>2200</v>
+        <v>2141</v>
       </c>
       <c r="F877" t="s">
-        <v>2066</v>
+        <v>148</v>
       </c>
       <c r="G877" t="s">
-        <v>2199</v>
+        <v>2140</v>
       </c>
       <c r="H877" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I877" t="s">
         <v>2405</v>
@@ -36645,59 +36785,59 @@
         <v>21</v>
       </c>
     </row>
-    <row r="878" spans="1:10">
+    <row r="878" spans="1:11">
       <c r="A878" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B878" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C878" s="13" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B878" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C878" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D878" t="s">
-        <v>2203</v>
+        <v>2145</v>
       </c>
       <c r="E878" t="s">
-        <v>2202</v>
+        <v>2144</v>
       </c>
       <c r="F878" t="s">
-        <v>2067</v>
+        <v>2052</v>
       </c>
       <c r="G878" t="s">
-        <v>2201</v>
-      </c>
-      <c r="H878" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H878" s="12" t="s">
         <v>2111</v>
       </c>
       <c r="I878" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="J878" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="879" spans="1:10">
+    <row r="879" spans="1:11">
       <c r="A879" t="s">
         <v>2068</v>
       </c>
-      <c r="B879" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C879" s="13" t="s">
+      <c r="B879" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C879" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D879" t="s">
         <v>2146</v>
       </c>
       <c r="E879" t="s">
-        <v>2204</v>
+        <v>2159</v>
       </c>
       <c r="F879" t="s">
         <v>2068</v>
       </c>
       <c r="G879" t="s">
-        <v>20</v>
+        <v>2158</v>
       </c>
       <c r="H879" t="s">
         <v>15</v>
@@ -36709,62 +36849,62 @@
         <v>21</v>
       </c>
     </row>
-    <row r="880" spans="1:10">
+    <row r="880" spans="1:11">
       <c r="A880" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B880" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C880" s="13" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B880" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C880" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D880" t="s">
-        <v>2207</v>
+        <v>2147</v>
       </c>
       <c r="E880" t="s">
-        <v>2205</v>
+        <v>2157</v>
       </c>
       <c r="F880" t="s">
-        <v>2069</v>
-      </c>
-      <c r="G880" t="s">
-        <v>2206</v>
+        <v>2053</v>
+      </c>
+      <c r="G880" s="2" t="s">
+        <v>2156</v>
       </c>
       <c r="H880" t="s">
-        <v>15</v>
+        <v>2148</v>
       </c>
       <c r="I880" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="J880" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="881" spans="1:11">
+    <row r="881" spans="1:10">
       <c r="A881" t="s">
-        <v>2049</v>
-      </c>
-      <c r="B881" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C881" s="13" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B881" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C881" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D881" t="s">
-        <v>2135</v>
+        <v>2149</v>
       </c>
       <c r="E881" t="s">
-        <v>2209</v>
+        <v>2155</v>
       </c>
       <c r="F881" t="s">
-        <v>2049</v>
+        <v>2054</v>
       </c>
       <c r="G881" t="s">
-        <v>2208</v>
+        <v>2154</v>
       </c>
       <c r="H881" t="s">
-        <v>15</v>
+        <v>2111</v>
       </c>
       <c r="I881" t="s">
         <v>2407</v>
@@ -36773,30 +36913,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="882" spans="1:11">
+    <row r="882" spans="1:10">
       <c r="A882" t="s">
-        <v>2070</v>
-      </c>
-      <c r="B882" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C882" s="13" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B882" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C882" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D882" t="s">
-        <v>2220</v>
+        <v>2150</v>
       </c>
       <c r="E882" t="s">
-        <v>2210</v>
+        <v>2153</v>
       </c>
       <c r="F882" t="s">
-        <v>2070</v>
+        <v>2151</v>
       </c>
       <c r="G882" t="s">
-        <v>20</v>
+        <v>2152</v>
       </c>
       <c r="H882" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I882" t="s">
         <v>2405</v>
@@ -36805,30 +36945,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="883" spans="1:11">
+    <row r="883" spans="1:10">
       <c r="A883" t="s">
-        <v>2045</v>
-      </c>
-      <c r="B883" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C883" s="13" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B883" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C883" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D883" t="s">
-        <v>2123</v>
+        <v>2164</v>
       </c>
       <c r="E883" t="s">
-        <v>2212</v>
+        <v>2163</v>
       </c>
       <c r="F883" t="s">
-        <v>2045</v>
+        <v>2056</v>
       </c>
       <c r="G883" t="s">
-        <v>2211</v>
+        <v>2162</v>
       </c>
       <c r="H883" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I883" t="s">
         <v>2405</v>
@@ -36837,9 +36977,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="884" spans="1:11">
+    <row r="884" spans="1:10">
       <c r="A884" t="s">
-        <v>2071</v>
+        <v>2057</v>
       </c>
       <c r="B884" s="13" t="s">
         <v>184</v>
@@ -36848,30 +36988,30 @@
         <v>129</v>
       </c>
       <c r="D884" t="s">
-        <v>2221</v>
+        <v>2165</v>
       </c>
       <c r="E884" t="s">
-        <v>2214</v>
+        <v>2166</v>
       </c>
       <c r="F884" t="s">
-        <v>2071</v>
+        <v>2057</v>
       </c>
       <c r="G884" t="s">
-        <v>2213</v>
+        <v>20</v>
       </c>
       <c r="H884" t="s">
         <v>2111</v>
       </c>
       <c r="I884" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J884" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="885" spans="1:11">
+        <v>2407</v>
+      </c>
+      <c r="J884" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="885" spans="1:10">
       <c r="A885" t="s">
-        <v>2072</v>
+        <v>2058</v>
       </c>
       <c r="B885" s="13" t="s">
         <v>184</v>
@@ -36880,16 +37020,16 @@
         <v>129</v>
       </c>
       <c r="D885" t="s">
-        <v>2222</v>
+        <v>2167</v>
       </c>
       <c r="E885" t="s">
-        <v>2216</v>
+        <v>2169</v>
       </c>
       <c r="F885" t="s">
-        <v>2072</v>
+        <v>2058</v>
       </c>
       <c r="G885" t="s">
-        <v>2215</v>
+        <v>2168</v>
       </c>
       <c r="H885" t="s">
         <v>2111</v>
@@ -36901,9 +37041,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="886" spans="1:11">
+    <row r="886" spans="1:10">
       <c r="A886" t="s">
-        <v>2073</v>
+        <v>2059</v>
       </c>
       <c r="B886" s="13" t="s">
         <v>184</v>
@@ -36912,47 +37052,62 @@
         <v>129</v>
       </c>
       <c r="D886" t="s">
-        <v>2223</v>
+        <v>2170</v>
       </c>
       <c r="E886" t="s">
-        <v>2218</v>
+        <v>2173</v>
       </c>
       <c r="F886" t="s">
-        <v>2073</v>
+        <v>2171</v>
       </c>
       <c r="G886" t="s">
-        <v>2217</v>
+        <v>2172</v>
       </c>
       <c r="H886" t="s">
-        <v>15</v>
+        <v>2111</v>
       </c>
       <c r="I886" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="J886" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="887" spans="1:11">
-      <c r="A887" s="10" t="s">
-        <v>2219</v>
-      </c>
-      <c r="B887" s="10"/>
-      <c r="C887" s="10" t="s">
+    <row r="887" spans="1:10">
+      <c r="A887" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B887" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C887" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D887" s="10"/>
-      <c r="E887" s="10"/>
-      <c r="F887" s="10"/>
-      <c r="G887" s="10"/>
-      <c r="H887" s="10"/>
-      <c r="I887" s="10"/>
-      <c r="J887" s="10"/>
-      <c r="K887" s="10"/>
-    </row>
-    <row r="888" spans="1:11">
+      <c r="D887" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E887" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F887" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G887" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H887" t="s">
+        <v>15</v>
+      </c>
+      <c r="I887" t="s">
+        <v>2406</v>
+      </c>
+      <c r="J887" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="888" spans="1:10">
       <c r="A888" t="s">
-        <v>2090</v>
+        <v>2061</v>
       </c>
       <c r="B888" s="13" t="s">
         <v>184</v>
@@ -36961,19 +37116,19 @@
         <v>129</v>
       </c>
       <c r="D888" t="s">
-        <v>2224</v>
+        <v>2175</v>
       </c>
       <c r="E888" t="s">
-        <v>2226</v>
+        <v>2178</v>
       </c>
       <c r="F888" t="s">
-        <v>2090</v>
+        <v>2061</v>
       </c>
       <c r="G888" t="s">
-        <v>2225</v>
+        <v>20</v>
       </c>
       <c r="H888" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I888" t="s">
         <v>2405</v>
@@ -36982,9 +37137,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="889" spans="1:11">
+    <row r="889" spans="1:10">
       <c r="A889" t="s">
-        <v>2227</v>
+        <v>2062</v>
       </c>
       <c r="B889" s="13" t="s">
         <v>184</v>
@@ -36993,19 +37148,19 @@
         <v>129</v>
       </c>
       <c r="D889" t="s">
-        <v>2228</v>
+        <v>2179</v>
       </c>
       <c r="E889" t="s">
-        <v>2231</v>
-      </c>
-      <c r="F889" t="s">
-        <v>2229</v>
+        <v>2181</v>
+      </c>
+      <c r="F889" s="3" t="s">
+        <v>2062</v>
       </c>
       <c r="G889" t="s">
-        <v>2230</v>
+        <v>2180</v>
       </c>
       <c r="H889" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I889" t="s">
         <v>2407</v>
@@ -37014,9 +37169,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="890" spans="1:11">
+    <row r="890" spans="1:10">
       <c r="A890" t="s">
-        <v>2074</v>
+        <v>2063</v>
       </c>
       <c r="B890" s="13" t="s">
         <v>184</v>
@@ -37025,30 +37180,30 @@
         <v>129</v>
       </c>
       <c r="D890" t="s">
-        <v>2234</v>
+        <v>2182</v>
       </c>
       <c r="E890" t="s">
-        <v>2233</v>
+        <v>2186</v>
       </c>
       <c r="F890" t="s">
-        <v>2074</v>
+        <v>2063</v>
       </c>
       <c r="G890" t="s">
-        <v>2232</v>
+        <v>2185</v>
       </c>
       <c r="H890" t="s">
-        <v>2148</v>
+        <v>15</v>
       </c>
       <c r="I890" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="J890" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="891" spans="1:11">
+    <row r="891" spans="1:10">
       <c r="A891" t="s">
-        <v>2075</v>
+        <v>2064</v>
       </c>
       <c r="B891" s="13" t="s">
         <v>184</v>
@@ -37057,30 +37212,30 @@
         <v>129</v>
       </c>
       <c r="D891" t="s">
-        <v>2235</v>
+        <v>2183</v>
       </c>
       <c r="E891" t="s">
-        <v>2237</v>
+        <v>2189</v>
       </c>
       <c r="F891" t="s">
-        <v>2075</v>
+        <v>2187</v>
       </c>
       <c r="G891" t="s">
-        <v>2236</v>
+        <v>2188</v>
       </c>
       <c r="H891" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I891" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="J891" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="892" spans="1:11">
+    <row r="892" spans="1:10">
       <c r="A892" t="s">
-        <v>2076</v>
+        <v>2046</v>
       </c>
       <c r="B892" s="13" t="s">
         <v>184</v>
@@ -37089,30 +37244,27 @@
         <v>129</v>
       </c>
       <c r="D892" t="s">
-        <v>2240</v>
+        <v>2184</v>
       </c>
       <c r="E892" t="s">
-        <v>2239</v>
+        <v>2191</v>
       </c>
       <c r="F892" t="s">
-        <v>2076</v>
+        <v>2046</v>
       </c>
       <c r="G892" t="s">
-        <v>2238</v>
+        <v>2190</v>
       </c>
       <c r="H892" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I892" t="s">
-        <v>2407</v>
-      </c>
-      <c r="J892" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="893" spans="1:11">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="893" spans="1:10">
       <c r="A893" t="s">
-        <v>2077</v>
+        <v>2062</v>
       </c>
       <c r="B893" s="13" t="s">
         <v>184</v>
@@ -37121,16 +37273,16 @@
         <v>129</v>
       </c>
       <c r="D893" t="s">
-        <v>2243</v>
+        <v>2179</v>
       </c>
       <c r="E893" t="s">
-        <v>2242</v>
+        <v>2193</v>
       </c>
       <c r="F893" t="s">
-        <v>2077</v>
+        <v>2062</v>
       </c>
       <c r="G893" t="s">
-        <v>2241</v>
+        <v>2192</v>
       </c>
       <c r="H893" t="s">
         <v>15</v>
@@ -37142,9 +37294,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="894" spans="1:11">
+    <row r="894" spans="1:10">
       <c r="A894" t="s">
-        <v>149</v>
+        <v>2065</v>
       </c>
       <c r="B894" s="13" t="s">
         <v>184</v>
@@ -37153,30 +37305,30 @@
         <v>129</v>
       </c>
       <c r="D894" t="s">
-        <v>196</v>
+        <v>2196</v>
       </c>
       <c r="E894" t="s">
-        <v>2245</v>
+        <v>2195</v>
       </c>
       <c r="F894" t="s">
-        <v>149</v>
+        <v>2065</v>
       </c>
       <c r="G894" t="s">
-        <v>2244</v>
+        <v>2194</v>
       </c>
       <c r="H894" t="s">
         <v>135</v>
       </c>
       <c r="I894" t="s">
-        <v>2405</v>
+        <v>2197</v>
       </c>
       <c r="J894" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="895" spans="1:11">
+    <row r="895" spans="1:10">
       <c r="A895" t="s">
-        <v>2078</v>
+        <v>2066</v>
       </c>
       <c r="B895" s="13" t="s">
         <v>184</v>
@@ -37185,30 +37337,30 @@
         <v>129</v>
       </c>
       <c r="D895" t="s">
-        <v>2248</v>
+        <v>2198</v>
       </c>
       <c r="E895" t="s">
-        <v>2247</v>
+        <v>2200</v>
       </c>
       <c r="F895" t="s">
-        <v>2078</v>
+        <v>2066</v>
       </c>
       <c r="G895" t="s">
-        <v>2246</v>
+        <v>2199</v>
       </c>
       <c r="H895" t="s">
         <v>15</v>
       </c>
       <c r="I895" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="J895" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="896" spans="1:11">
+    <row r="896" spans="1:10">
       <c r="A896" t="s">
-        <v>2078</v>
+        <v>2067</v>
       </c>
       <c r="B896" s="13" t="s">
         <v>184</v>
@@ -37217,30 +37369,30 @@
         <v>129</v>
       </c>
       <c r="D896" t="s">
-        <v>2248</v>
+        <v>2203</v>
       </c>
       <c r="E896" t="s">
-        <v>2250</v>
+        <v>2202</v>
       </c>
       <c r="F896" t="s">
-        <v>2078</v>
+        <v>2067</v>
       </c>
       <c r="G896" t="s">
-        <v>2249</v>
+        <v>2201</v>
       </c>
       <c r="H896" t="s">
-        <v>15</v>
+        <v>2111</v>
       </c>
       <c r="I896" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="J896" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="897" spans="1:10">
+    <row r="897" spans="1:11">
       <c r="A897" t="s">
-        <v>2078</v>
+        <v>2068</v>
       </c>
       <c r="B897" s="13" t="s">
         <v>184</v>
@@ -37249,30 +37401,30 @@
         <v>129</v>
       </c>
       <c r="D897" t="s">
-        <v>2248</v>
+        <v>2146</v>
       </c>
       <c r="E897" t="s">
-        <v>2252</v>
+        <v>2204</v>
       </c>
       <c r="F897" t="s">
-        <v>2078</v>
+        <v>2068</v>
       </c>
       <c r="G897" t="s">
-        <v>2251</v>
+        <v>20</v>
       </c>
       <c r="H897" t="s">
         <v>15</v>
       </c>
       <c r="I897" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="J897" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="898" spans="1:10">
+    <row r="898" spans="1:11">
       <c r="A898" t="s">
-        <v>2078</v>
+        <v>2069</v>
       </c>
       <c r="B898" s="13" t="s">
         <v>184</v>
@@ -37281,30 +37433,30 @@
         <v>129</v>
       </c>
       <c r="D898" t="s">
-        <v>2248</v>
+        <v>2207</v>
       </c>
       <c r="E898" t="s">
-        <v>2254</v>
+        <v>2205</v>
       </c>
       <c r="F898" t="s">
-        <v>2078</v>
+        <v>2069</v>
       </c>
       <c r="G898" t="s">
-        <v>2253</v>
+        <v>2206</v>
       </c>
       <c r="H898" t="s">
         <v>15</v>
       </c>
       <c r="I898" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="J898" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="899" spans="1:10">
+    <row r="899" spans="1:11">
       <c r="A899" t="s">
-        <v>2079</v>
+        <v>2049</v>
       </c>
       <c r="B899" s="13" t="s">
         <v>184</v>
@@ -37313,19 +37465,19 @@
         <v>129</v>
       </c>
       <c r="D899" t="s">
-        <v>2255</v>
+        <v>2135</v>
       </c>
       <c r="E899" t="s">
-        <v>2257</v>
+        <v>2209</v>
       </c>
       <c r="F899" t="s">
-        <v>2079</v>
+        <v>2049</v>
       </c>
       <c r="G899" t="s">
-        <v>2256</v>
+        <v>2208</v>
       </c>
       <c r="H899" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I899" t="s">
         <v>2407</v>
@@ -37334,9 +37486,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="900" spans="1:10">
+    <row r="900" spans="1:11">
       <c r="A900" t="s">
-        <v>2080</v>
+        <v>2070</v>
       </c>
       <c r="B900" s="13" t="s">
         <v>184</v>
@@ -37345,19 +37497,19 @@
         <v>129</v>
       </c>
       <c r="D900" t="s">
-        <v>2258</v>
+        <v>2220</v>
       </c>
       <c r="E900" t="s">
-        <v>2260</v>
+        <v>2210</v>
       </c>
       <c r="F900" t="s">
-        <v>2080</v>
+        <v>2070</v>
       </c>
       <c r="G900" t="s">
-        <v>2259</v>
+        <v>20</v>
       </c>
       <c r="H900" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I900" t="s">
         <v>2405</v>
@@ -37366,9 +37518,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="901" spans="1:10">
+    <row r="901" spans="1:11">
       <c r="A901" t="s">
-        <v>2081</v>
+        <v>2045</v>
       </c>
       <c r="B901" s="13" t="s">
         <v>184</v>
@@ -37377,16 +37529,16 @@
         <v>129</v>
       </c>
       <c r="D901" t="s">
-        <v>2261</v>
+        <v>2123</v>
       </c>
       <c r="E901" t="s">
-        <v>2263</v>
+        <v>2212</v>
       </c>
       <c r="F901" t="s">
-        <v>2081</v>
+        <v>2045</v>
       </c>
       <c r="G901" t="s">
-        <v>2262</v>
+        <v>2211</v>
       </c>
       <c r="H901" t="s">
         <v>2111</v>
@@ -37398,9 +37550,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="902" spans="1:10">
+    <row r="902" spans="1:11">
       <c r="A902" t="s">
-        <v>2082</v>
+        <v>2071</v>
       </c>
       <c r="B902" s="13" t="s">
         <v>184</v>
@@ -37409,30 +37561,30 @@
         <v>129</v>
       </c>
       <c r="D902" t="s">
-        <v>2264</v>
+        <v>2221</v>
       </c>
       <c r="E902" t="s">
-        <v>2266</v>
+        <v>2214</v>
       </c>
       <c r="F902" t="s">
-        <v>2082</v>
+        <v>2071</v>
       </c>
       <c r="G902" t="s">
-        <v>2265</v>
+        <v>2213</v>
       </c>
       <c r="H902" t="s">
-        <v>15</v>
+        <v>2111</v>
       </c>
       <c r="I902" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="J902" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="903" spans="1:10">
+    <row r="903" spans="1:11">
       <c r="A903" t="s">
-        <v>2083</v>
+        <v>2072</v>
       </c>
       <c r="B903" s="13" t="s">
         <v>184</v>
@@ -37441,30 +37593,30 @@
         <v>129</v>
       </c>
       <c r="D903" t="s">
-        <v>2267</v>
+        <v>2222</v>
       </c>
       <c r="E903" t="s">
-        <v>2269</v>
+        <v>2216</v>
       </c>
       <c r="F903" t="s">
-        <v>2083</v>
+        <v>2072</v>
       </c>
       <c r="G903" t="s">
-        <v>2268</v>
+        <v>2215</v>
       </c>
       <c r="H903" t="s">
         <v>2111</v>
       </c>
       <c r="I903" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J903" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="904" spans="1:10">
+    <row r="904" spans="1:11">
       <c r="A904" t="s">
-        <v>2084</v>
+        <v>2073</v>
       </c>
       <c r="B904" s="13" t="s">
         <v>184</v>
@@ -37473,19 +37625,19 @@
         <v>129</v>
       </c>
       <c r="D904" t="s">
-        <v>2270</v>
+        <v>2223</v>
       </c>
       <c r="E904" t="s">
-        <v>2271</v>
+        <v>2218</v>
       </c>
       <c r="F904" t="s">
-        <v>2084</v>
+        <v>2073</v>
       </c>
       <c r="G904" t="s">
-        <v>20</v>
+        <v>2217</v>
       </c>
       <c r="H904" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I904" t="s">
         <v>2407</v>
@@ -37494,41 +37646,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="905" spans="1:10">
-      <c r="A905" t="s">
-        <v>2085</v>
-      </c>
-      <c r="B905" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C905" s="13" t="s">
+    <row r="905" spans="1:11">
+      <c r="A905" s="10" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B905" s="10"/>
+      <c r="C905" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D905" t="s">
-        <v>2272</v>
-      </c>
-      <c r="E905" t="s">
-        <v>2274</v>
-      </c>
-      <c r="F905" t="s">
-        <v>2085</v>
-      </c>
-      <c r="G905" t="s">
-        <v>2273</v>
-      </c>
-      <c r="H905" t="s">
-        <v>135</v>
-      </c>
-      <c r="I905" t="s">
-        <v>2406</v>
-      </c>
-      <c r="J905" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="906" spans="1:10">
+      <c r="D905" s="10"/>
+      <c r="E905" s="10"/>
+      <c r="F905" s="10"/>
+      <c r="G905" s="10"/>
+      <c r="H905" s="10"/>
+      <c r="I905" s="10"/>
+      <c r="J905" s="10"/>
+      <c r="K905" s="10"/>
+    </row>
+    <row r="906" spans="1:11">
       <c r="A906" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="B906" s="13" t="s">
         <v>184</v>
@@ -37537,30 +37674,30 @@
         <v>129</v>
       </c>
       <c r="D906" t="s">
-        <v>2275</v>
+        <v>2224</v>
       </c>
       <c r="E906" t="s">
-        <v>2277</v>
+        <v>2226</v>
       </c>
       <c r="F906" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="G906" t="s">
-        <v>2276</v>
+        <v>2225</v>
       </c>
       <c r="H906" t="s">
         <v>2111</v>
       </c>
       <c r="I906" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="J906" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="907" spans="1:10">
+    <row r="907" spans="1:11">
       <c r="A907" t="s">
-        <v>2087</v>
+        <v>2227</v>
       </c>
       <c r="B907" s="13" t="s">
         <v>184</v>
@@ -37569,30 +37706,30 @@
         <v>129</v>
       </c>
       <c r="D907" t="s">
-        <v>2278</v>
+        <v>2228</v>
       </c>
       <c r="E907" t="s">
-        <v>2394</v>
+        <v>2231</v>
       </c>
       <c r="F907" t="s">
-        <v>2087</v>
+        <v>2229</v>
       </c>
       <c r="G907" t="s">
-        <v>2395</v>
+        <v>2230</v>
       </c>
       <c r="H907" t="s">
         <v>2111</v>
       </c>
       <c r="I907" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J907" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="908" spans="1:10">
+    <row r="908" spans="1:11">
       <c r="A908" t="s">
-        <v>2088</v>
+        <v>2074</v>
       </c>
       <c r="B908" s="13" t="s">
         <v>184</v>
@@ -37601,30 +37738,30 @@
         <v>129</v>
       </c>
       <c r="D908" t="s">
-        <v>2279</v>
+        <v>2234</v>
       </c>
       <c r="E908" t="s">
-        <v>2285</v>
+        <v>2233</v>
       </c>
       <c r="F908" t="s">
-        <v>2088</v>
+        <v>2074</v>
       </c>
       <c r="G908" t="s">
-        <v>2286</v>
+        <v>2232</v>
       </c>
       <c r="H908" t="s">
-        <v>135</v>
+        <v>2148</v>
       </c>
       <c r="I908" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="J908" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="909" spans="1:10">
+    <row r="909" spans="1:11">
       <c r="A909" t="s">
-        <v>133</v>
+        <v>2075</v>
       </c>
       <c r="B909" s="13" t="s">
         <v>184</v>
@@ -37633,30 +37770,30 @@
         <v>129</v>
       </c>
       <c r="D909" t="s">
-        <v>534</v>
+        <v>2235</v>
       </c>
       <c r="E909" t="s">
-        <v>2392</v>
+        <v>2237</v>
       </c>
       <c r="F909" t="s">
-        <v>133</v>
+        <v>2075</v>
       </c>
       <c r="G909" t="s">
-        <v>2393</v>
+        <v>2236</v>
       </c>
       <c r="H909" t="s">
-        <v>135</v>
+        <v>2111</v>
       </c>
       <c r="I909" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J909" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="910" spans="1:10">
+    <row r="910" spans="1:11">
       <c r="A910" t="s">
-        <v>133</v>
+        <v>2076</v>
       </c>
       <c r="B910" s="13" t="s">
         <v>184</v>
@@ -37665,30 +37802,30 @@
         <v>129</v>
       </c>
       <c r="D910" t="s">
-        <v>534</v>
+        <v>2240</v>
       </c>
       <c r="E910" t="s">
-        <v>2390</v>
+        <v>2239</v>
       </c>
       <c r="F910" t="s">
-        <v>133</v>
+        <v>2076</v>
       </c>
       <c r="G910" t="s">
-        <v>2391</v>
+        <v>2238</v>
       </c>
       <c r="H910" t="s">
-        <v>135</v>
+        <v>2111</v>
       </c>
       <c r="I910" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J910" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="911" spans="1:10">
+    <row r="911" spans="1:11">
       <c r="A911" t="s">
-        <v>133</v>
+        <v>2077</v>
       </c>
       <c r="B911" s="13" t="s">
         <v>184</v>
@@ -37697,30 +37834,30 @@
         <v>129</v>
       </c>
       <c r="D911" t="s">
-        <v>534</v>
+        <v>2243</v>
       </c>
       <c r="E911" t="s">
-        <v>2288</v>
+        <v>2242</v>
       </c>
       <c r="F911" t="s">
-        <v>133</v>
+        <v>2077</v>
       </c>
       <c r="G911" t="s">
-        <v>2287</v>
+        <v>2241</v>
       </c>
       <c r="H911" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="I911" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J911" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="912" spans="1:10">
+    <row r="912" spans="1:11">
       <c r="A912" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B912" s="13" t="s">
         <v>184</v>
@@ -37729,16 +37866,16 @@
         <v>129</v>
       </c>
       <c r="D912" t="s">
-        <v>534</v>
+        <v>196</v>
       </c>
       <c r="E912" t="s">
-        <v>2290</v>
+        <v>2245</v>
       </c>
       <c r="F912" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G912" t="s">
-        <v>2289</v>
+        <v>2244</v>
       </c>
       <c r="H912" t="s">
         <v>135</v>
@@ -37752,7 +37889,7 @@
     </row>
     <row r="913" spans="1:10">
       <c r="A913" t="s">
-        <v>2089</v>
+        <v>2078</v>
       </c>
       <c r="B913" s="13" t="s">
         <v>184</v>
@@ -37761,16 +37898,16 @@
         <v>129</v>
       </c>
       <c r="D913" t="s">
-        <v>2280</v>
+        <v>2248</v>
       </c>
       <c r="E913" t="s">
-        <v>2292</v>
+        <v>2247</v>
       </c>
       <c r="F913" t="s">
-        <v>2089</v>
+        <v>2078</v>
       </c>
       <c r="G913" t="s">
-        <v>2291</v>
+        <v>2246</v>
       </c>
       <c r="H913" t="s">
         <v>15</v>
@@ -37784,7 +37921,7 @@
     </row>
     <row r="914" spans="1:10">
       <c r="A914" t="s">
-        <v>2090</v>
+        <v>2078</v>
       </c>
       <c r="B914" s="13" t="s">
         <v>184</v>
@@ -37793,22 +37930,22 @@
         <v>129</v>
       </c>
       <c r="D914" t="s">
-        <v>2281</v>
+        <v>2248</v>
       </c>
       <c r="E914" t="s">
-        <v>2294</v>
+        <v>2250</v>
       </c>
       <c r="F914" t="s">
-        <v>2090</v>
+        <v>2078</v>
       </c>
       <c r="G914" t="s">
-        <v>2293</v>
+        <v>2249</v>
       </c>
       <c r="H914" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I914" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="J914" s="12" t="s">
         <v>21</v>
@@ -37816,7 +37953,7 @@
     </row>
     <row r="915" spans="1:10">
       <c r="A915" t="s">
-        <v>2091</v>
+        <v>2078</v>
       </c>
       <c r="B915" s="13" t="s">
         <v>184</v>
@@ -37825,22 +37962,22 @@
         <v>129</v>
       </c>
       <c r="D915" t="s">
-        <v>2282</v>
+        <v>2248</v>
       </c>
       <c r="E915" t="s">
-        <v>2296</v>
+        <v>2252</v>
       </c>
       <c r="F915" t="s">
-        <v>2091</v>
+        <v>2078</v>
       </c>
       <c r="G915" t="s">
-        <v>2295</v>
+        <v>2251</v>
       </c>
       <c r="H915" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I915" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="J915" s="12" t="s">
         <v>21</v>
@@ -37848,7 +37985,7 @@
     </row>
     <row r="916" spans="1:10">
       <c r="A916" t="s">
-        <v>2091</v>
+        <v>2078</v>
       </c>
       <c r="B916" s="13" t="s">
         <v>184</v>
@@ -37857,22 +37994,22 @@
         <v>129</v>
       </c>
       <c r="D916" t="s">
-        <v>2282</v>
+        <v>2248</v>
       </c>
       <c r="E916" t="s">
-        <v>2298</v>
+        <v>2254</v>
       </c>
       <c r="F916" t="s">
-        <v>2091</v>
+        <v>2078</v>
       </c>
       <c r="G916" t="s">
-        <v>2297</v>
+        <v>2253</v>
       </c>
       <c r="H916" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I916" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="J916" s="12" t="s">
         <v>21</v>
@@ -37880,7 +38017,7 @@
     </row>
     <row r="917" spans="1:10">
       <c r="A917" t="s">
-        <v>2092</v>
+        <v>2079</v>
       </c>
       <c r="B917" s="13" t="s">
         <v>184</v>
@@ -37889,27 +38026,30 @@
         <v>129</v>
       </c>
       <c r="D917" t="s">
-        <v>2283</v>
+        <v>2255</v>
       </c>
       <c r="E917" t="s">
-        <v>2388</v>
+        <v>2257</v>
       </c>
       <c r="F917" t="s">
-        <v>2092</v>
+        <v>2079</v>
       </c>
       <c r="G917" t="s">
-        <v>2389</v>
+        <v>2256</v>
       </c>
       <c r="H917" t="s">
         <v>2111</v>
       </c>
       <c r="I917" t="s">
-        <v>2405</v>
+        <v>2407</v>
+      </c>
+      <c r="J917" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="918" spans="1:10">
       <c r="A918" t="s">
-        <v>2093</v>
+        <v>2080</v>
       </c>
       <c r="B918" s="13" t="s">
         <v>184</v>
@@ -37918,22 +38058,22 @@
         <v>129</v>
       </c>
       <c r="D918" t="s">
-        <v>2284</v>
+        <v>2258</v>
       </c>
       <c r="E918" t="s">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="F918" t="s">
-        <v>2093</v>
+        <v>2080</v>
       </c>
       <c r="G918" t="s">
-        <v>2299</v>
+        <v>2259</v>
       </c>
       <c r="H918" t="s">
-        <v>2148</v>
+        <v>2111</v>
       </c>
       <c r="I918" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="J918" s="12" t="s">
         <v>21</v>
@@ -37941,7 +38081,7 @@
     </row>
     <row r="919" spans="1:10">
       <c r="A919" t="s">
-        <v>2093</v>
+        <v>2081</v>
       </c>
       <c r="B919" s="13" t="s">
         <v>184</v>
@@ -37950,22 +38090,22 @@
         <v>129</v>
       </c>
       <c r="D919" t="s">
-        <v>2284</v>
+        <v>2261</v>
       </c>
       <c r="E919" t="s">
-        <v>2301</v>
+        <v>2263</v>
       </c>
       <c r="F919" t="s">
-        <v>2093</v>
+        <v>2081</v>
       </c>
       <c r="G919" t="s">
-        <v>20</v>
+        <v>2262</v>
       </c>
       <c r="H919" t="s">
-        <v>2148</v>
+        <v>2111</v>
       </c>
       <c r="I919" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="J919" s="12" t="s">
         <v>21</v>
@@ -37973,7 +38113,7 @@
     </row>
     <row r="920" spans="1:10">
       <c r="A920" t="s">
-        <v>2093</v>
+        <v>2082</v>
       </c>
       <c r="B920" s="13" t="s">
         <v>184</v>
@@ -37982,22 +38122,22 @@
         <v>129</v>
       </c>
       <c r="D920" t="s">
-        <v>2284</v>
+        <v>2264</v>
       </c>
       <c r="E920" t="s">
-        <v>2303</v>
+        <v>2266</v>
       </c>
       <c r="F920" t="s">
-        <v>2093</v>
+        <v>2082</v>
       </c>
       <c r="G920" t="s">
-        <v>2302</v>
+        <v>2265</v>
       </c>
       <c r="H920" t="s">
-        <v>2148</v>
+        <v>15</v>
       </c>
       <c r="I920" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="J920" s="12" t="s">
         <v>21</v>
@@ -38005,7 +38145,7 @@
     </row>
     <row r="921" spans="1:10">
       <c r="A921" t="s">
-        <v>2093</v>
+        <v>2083</v>
       </c>
       <c r="B921" s="13" t="s">
         <v>184</v>
@@ -38014,22 +38154,22 @@
         <v>129</v>
       </c>
       <c r="D921" t="s">
-        <v>2284</v>
+        <v>2267</v>
       </c>
       <c r="E921" t="s">
-        <v>2305</v>
+        <v>2269</v>
       </c>
       <c r="F921" t="s">
-        <v>2093</v>
+        <v>2083</v>
       </c>
       <c r="G921" t="s">
-        <v>2304</v>
+        <v>2268</v>
       </c>
       <c r="H921" t="s">
-        <v>2148</v>
+        <v>2111</v>
       </c>
       <c r="I921" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="J921" s="12" t="s">
         <v>21</v>
@@ -38037,7 +38177,7 @@
     </row>
     <row r="922" spans="1:10">
       <c r="A922" t="s">
-        <v>2094</v>
+        <v>2084</v>
       </c>
       <c r="B922" s="13" t="s">
         <v>184</v>
@@ -38046,22 +38186,22 @@
         <v>129</v>
       </c>
       <c r="D922" t="s">
-        <v>1351</v>
+        <v>2270</v>
       </c>
       <c r="E922" t="s">
-        <v>2307</v>
+        <v>2271</v>
       </c>
       <c r="F922" t="s">
-        <v>2094</v>
+        <v>2084</v>
       </c>
       <c r="G922" t="s">
-        <v>2306</v>
+        <v>20</v>
       </c>
       <c r="H922" t="s">
-        <v>15</v>
+        <v>2111</v>
       </c>
       <c r="I922" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="J922" s="12" t="s">
         <v>21</v>
@@ -38069,7 +38209,7 @@
     </row>
     <row r="923" spans="1:10">
       <c r="A923" t="s">
-        <v>2095</v>
+        <v>2085</v>
       </c>
       <c r="B923" s="13" t="s">
         <v>184</v>
@@ -38078,27 +38218,30 @@
         <v>129</v>
       </c>
       <c r="D923" t="s">
-        <v>2308</v>
+        <v>2272</v>
       </c>
       <c r="E923" t="s">
-        <v>2310</v>
+        <v>2274</v>
       </c>
       <c r="F923" t="s">
-        <v>2095</v>
+        <v>2085</v>
       </c>
       <c r="G923" t="s">
-        <v>2309</v>
+        <v>2273</v>
       </c>
       <c r="H923" t="s">
-        <v>2111</v>
+        <v>135</v>
       </c>
       <c r="I923" t="s">
         <v>2406</v>
       </c>
+      <c r="J923" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="924" spans="1:10">
       <c r="A924" t="s">
-        <v>2096</v>
+        <v>2086</v>
       </c>
       <c r="B924" s="13" t="s">
         <v>184</v>
@@ -38107,16 +38250,16 @@
         <v>129</v>
       </c>
       <c r="D924" t="s">
-        <v>2311</v>
+        <v>2275</v>
       </c>
       <c r="E924" t="s">
-        <v>2313</v>
+        <v>2277</v>
       </c>
       <c r="F924" t="s">
-        <v>2096</v>
+        <v>2086</v>
       </c>
       <c r="G924" t="s">
-        <v>2312</v>
+        <v>2276</v>
       </c>
       <c r="H924" t="s">
         <v>2111</v>
@@ -38130,7 +38273,7 @@
     </row>
     <row r="925" spans="1:10">
       <c r="A925" t="s">
-        <v>2097</v>
+        <v>2087</v>
       </c>
       <c r="B925" s="13" t="s">
         <v>184</v>
@@ -38139,22 +38282,22 @@
         <v>129</v>
       </c>
       <c r="D925" t="s">
-        <v>2318</v>
+        <v>2278</v>
       </c>
       <c r="E925" t="s">
-        <v>2315</v>
+        <v>2394</v>
       </c>
       <c r="F925" t="s">
-        <v>2097</v>
+        <v>2087</v>
       </c>
       <c r="G925" t="s">
-        <v>2314</v>
+        <v>2395</v>
       </c>
       <c r="H925" t="s">
         <v>2111</v>
       </c>
       <c r="I925" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="J925" s="12" t="s">
         <v>21</v>
@@ -38162,7 +38305,7 @@
     </row>
     <row r="926" spans="1:10">
       <c r="A926" t="s">
-        <v>2097</v>
+        <v>2088</v>
       </c>
       <c r="B926" s="13" t="s">
         <v>184</v>
@@ -38171,22 +38314,22 @@
         <v>129</v>
       </c>
       <c r="D926" t="s">
-        <v>2318</v>
+        <v>2279</v>
       </c>
       <c r="E926" t="s">
-        <v>2317</v>
+        <v>2285</v>
       </c>
       <c r="F926" t="s">
-        <v>2097</v>
+        <v>2088</v>
       </c>
       <c r="G926" t="s">
-        <v>2316</v>
+        <v>2286</v>
       </c>
       <c r="H926" t="s">
-        <v>2111</v>
+        <v>135</v>
       </c>
       <c r="I926" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="J926" s="12" t="s">
         <v>21</v>
@@ -38194,7 +38337,7 @@
     </row>
     <row r="927" spans="1:10">
       <c r="A927" t="s">
-        <v>2097</v>
+        <v>133</v>
       </c>
       <c r="B927" s="13" t="s">
         <v>184</v>
@@ -38203,22 +38346,22 @@
         <v>129</v>
       </c>
       <c r="D927" t="s">
-        <v>2318</v>
+        <v>534</v>
       </c>
       <c r="E927" t="s">
-        <v>2320</v>
+        <v>2392</v>
       </c>
       <c r="F927" t="s">
-        <v>2097</v>
+        <v>133</v>
       </c>
       <c r="G927" t="s">
-        <v>2319</v>
+        <v>2393</v>
       </c>
       <c r="H927" t="s">
-        <v>2111</v>
+        <v>135</v>
       </c>
       <c r="I927" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="J927" s="12" t="s">
         <v>21</v>
@@ -38226,7 +38369,7 @@
     </row>
     <row r="928" spans="1:10">
       <c r="A928" t="s">
-        <v>2097</v>
+        <v>133</v>
       </c>
       <c r="B928" s="13" t="s">
         <v>184</v>
@@ -38235,22 +38378,22 @@
         <v>129</v>
       </c>
       <c r="D928" t="s">
-        <v>2318</v>
+        <v>534</v>
       </c>
       <c r="E928" t="s">
-        <v>2322</v>
+        <v>2390</v>
       </c>
       <c r="F928" t="s">
-        <v>2097</v>
+        <v>133</v>
       </c>
       <c r="G928" t="s">
-        <v>2321</v>
+        <v>2391</v>
       </c>
       <c r="H928" t="s">
-        <v>2111</v>
+        <v>135</v>
       </c>
       <c r="I928" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="J928" s="12" t="s">
         <v>21</v>
@@ -38258,7 +38401,7 @@
     </row>
     <row r="929" spans="1:10">
       <c r="A929" t="s">
-        <v>2323</v>
+        <v>133</v>
       </c>
       <c r="B929" s="13" t="s">
         <v>184</v>
@@ -38267,22 +38410,22 @@
         <v>129</v>
       </c>
       <c r="D929" t="s">
-        <v>2326</v>
+        <v>534</v>
       </c>
       <c r="E929" t="s">
-        <v>2325</v>
+        <v>2288</v>
       </c>
       <c r="F929" t="s">
-        <v>2323</v>
+        <v>133</v>
       </c>
       <c r="G929" t="s">
-        <v>2324</v>
+        <v>2287</v>
       </c>
       <c r="H929" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I929" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="J929" s="12" t="s">
         <v>21</v>
@@ -38290,7 +38433,7 @@
     </row>
     <row r="930" spans="1:10">
       <c r="A930" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B930" s="13" t="s">
         <v>184</v>
@@ -38299,16 +38442,16 @@
         <v>129</v>
       </c>
       <c r="D930" t="s">
-        <v>1742</v>
+        <v>534</v>
       </c>
       <c r="E930" t="s">
-        <v>2327</v>
+        <v>2290</v>
       </c>
       <c r="F930" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G930" t="s">
-        <v>20</v>
+        <v>2289</v>
       </c>
       <c r="H930" t="s">
         <v>135</v>
@@ -38322,7 +38465,7 @@
     </row>
     <row r="931" spans="1:10">
       <c r="A931" t="s">
-        <v>148</v>
+        <v>2089</v>
       </c>
       <c r="B931" s="13" t="s">
         <v>184</v>
@@ -38331,22 +38474,22 @@
         <v>129</v>
       </c>
       <c r="D931" t="s">
-        <v>1742</v>
+        <v>2280</v>
       </c>
       <c r="E931" t="s">
-        <v>2329</v>
+        <v>2292</v>
       </c>
       <c r="F931" t="s">
-        <v>148</v>
+        <v>2089</v>
       </c>
       <c r="G931" t="s">
-        <v>2328</v>
+        <v>2291</v>
       </c>
       <c r="H931" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="I931" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="J931" s="12" t="s">
         <v>21</v>
@@ -38354,7 +38497,7 @@
     </row>
     <row r="932" spans="1:10">
       <c r="A932" t="s">
-        <v>148</v>
+        <v>2090</v>
       </c>
       <c r="B932" s="13" t="s">
         <v>184</v>
@@ -38363,19 +38506,19 @@
         <v>129</v>
       </c>
       <c r="D932" t="s">
-        <v>1742</v>
+        <v>2281</v>
       </c>
       <c r="E932" t="s">
-        <v>2331</v>
+        <v>2294</v>
       </c>
       <c r="F932" t="s">
-        <v>148</v>
+        <v>2090</v>
       </c>
       <c r="G932" t="s">
-        <v>2330</v>
+        <v>2293</v>
       </c>
       <c r="H932" t="s">
-        <v>135</v>
+        <v>2111</v>
       </c>
       <c r="I932" t="s">
         <v>2405</v>
@@ -38386,7 +38529,7 @@
     </row>
     <row r="933" spans="1:10">
       <c r="A933" t="s">
-        <v>148</v>
+        <v>2091</v>
       </c>
       <c r="B933" s="13" t="s">
         <v>184</v>
@@ -38395,22 +38538,22 @@
         <v>129</v>
       </c>
       <c r="D933" t="s">
-        <v>1742</v>
+        <v>2282</v>
       </c>
       <c r="E933" t="s">
-        <v>2332</v>
+        <v>2296</v>
       </c>
       <c r="F933" t="s">
-        <v>148</v>
+        <v>2091</v>
       </c>
       <c r="G933" t="s">
-        <v>558</v>
+        <v>2295</v>
       </c>
       <c r="H933" t="s">
-        <v>135</v>
+        <v>2111</v>
       </c>
       <c r="I933" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J933" s="12" t="s">
         <v>21</v>
@@ -38418,7 +38561,7 @@
     </row>
     <row r="934" spans="1:10">
       <c r="A934" t="s">
-        <v>148</v>
+        <v>2091</v>
       </c>
       <c r="B934" s="13" t="s">
         <v>184</v>
@@ -38427,22 +38570,22 @@
         <v>129</v>
       </c>
       <c r="D934" t="s">
-        <v>1742</v>
+        <v>2282</v>
       </c>
       <c r="E934" t="s">
-        <v>2334</v>
+        <v>2298</v>
       </c>
       <c r="F934" t="s">
-        <v>148</v>
+        <v>2091</v>
       </c>
       <c r="G934" t="s">
-        <v>2333</v>
+        <v>2297</v>
       </c>
       <c r="H934" t="s">
-        <v>135</v>
+        <v>2111</v>
       </c>
       <c r="I934" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J934" s="12" t="s">
         <v>21</v>
@@ -38450,7 +38593,7 @@
     </row>
     <row r="935" spans="1:10">
       <c r="A935" t="s">
-        <v>148</v>
+        <v>2092</v>
       </c>
       <c r="B935" s="13" t="s">
         <v>184</v>
@@ -38459,30 +38602,27 @@
         <v>129</v>
       </c>
       <c r="D935" t="s">
-        <v>1742</v>
+        <v>2283</v>
       </c>
       <c r="E935" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="F935" t="s">
-        <v>148</v>
+        <v>2092</v>
       </c>
       <c r="G935" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="H935" t="s">
-        <v>135</v>
+        <v>2111</v>
       </c>
       <c r="I935" t="s">
         <v>2405</v>
       </c>
-      <c r="J935" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="936" spans="1:10">
       <c r="A936" t="s">
-        <v>148</v>
+        <v>2093</v>
       </c>
       <c r="B936" s="13" t="s">
         <v>184</v>
@@ -38491,22 +38631,22 @@
         <v>129</v>
       </c>
       <c r="D936" t="s">
-        <v>1742</v>
+        <v>2284</v>
       </c>
       <c r="E936" t="s">
-        <v>2336</v>
+        <v>2300</v>
       </c>
       <c r="F936" t="s">
-        <v>148</v>
+        <v>2093</v>
       </c>
       <c r="G936" t="s">
-        <v>2335</v>
+        <v>2299</v>
       </c>
       <c r="H936" t="s">
-        <v>135</v>
+        <v>2148</v>
       </c>
       <c r="I936" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="J936" s="12" t="s">
         <v>21</v>
@@ -38514,7 +38654,7 @@
     </row>
     <row r="937" spans="1:10">
       <c r="A937" t="s">
-        <v>148</v>
+        <v>2093</v>
       </c>
       <c r="B937" s="13" t="s">
         <v>184</v>
@@ -38523,22 +38663,22 @@
         <v>129</v>
       </c>
       <c r="D937" t="s">
-        <v>1742</v>
+        <v>2284</v>
       </c>
       <c r="E937" t="s">
-        <v>2384</v>
+        <v>2301</v>
       </c>
       <c r="F937" t="s">
-        <v>148</v>
+        <v>2093</v>
       </c>
       <c r="G937" t="s">
-        <v>2385</v>
+        <v>20</v>
       </c>
       <c r="H937" t="s">
-        <v>135</v>
+        <v>2148</v>
       </c>
       <c r="I937" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="J937" s="12" t="s">
         <v>21</v>
@@ -38546,7 +38686,7 @@
     </row>
     <row r="938" spans="1:10">
       <c r="A938" t="s">
-        <v>148</v>
+        <v>2093</v>
       </c>
       <c r="B938" s="13" t="s">
         <v>184</v>
@@ -38555,22 +38695,22 @@
         <v>129</v>
       </c>
       <c r="D938" t="s">
-        <v>1742</v>
+        <v>2284</v>
       </c>
       <c r="E938" t="s">
-        <v>2338</v>
+        <v>2303</v>
       </c>
       <c r="F938" t="s">
-        <v>148</v>
+        <v>2093</v>
       </c>
       <c r="G938" t="s">
-        <v>2337</v>
+        <v>2302</v>
       </c>
       <c r="H938" t="s">
-        <v>135</v>
+        <v>2148</v>
       </c>
       <c r="I938" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="J938" s="12" t="s">
         <v>21</v>
@@ -38578,7 +38718,7 @@
     </row>
     <row r="939" spans="1:10">
       <c r="A939" t="s">
-        <v>148</v>
+        <v>2093</v>
       </c>
       <c r="B939" s="13" t="s">
         <v>184</v>
@@ -38587,22 +38727,22 @@
         <v>129</v>
       </c>
       <c r="D939" t="s">
-        <v>1742</v>
+        <v>2284</v>
       </c>
       <c r="E939" t="s">
-        <v>2339</v>
+        <v>2305</v>
       </c>
       <c r="F939" t="s">
-        <v>148</v>
+        <v>2093</v>
       </c>
       <c r="G939" t="s">
-        <v>20</v>
+        <v>2304</v>
       </c>
       <c r="H939" t="s">
-        <v>135</v>
+        <v>2148</v>
       </c>
       <c r="I939" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="J939" s="12" t="s">
         <v>21</v>
@@ -38610,7 +38750,7 @@
     </row>
     <row r="940" spans="1:10">
       <c r="A940" t="s">
-        <v>148</v>
+        <v>2094</v>
       </c>
       <c r="B940" s="13" t="s">
         <v>184</v>
@@ -38619,22 +38759,22 @@
         <v>129</v>
       </c>
       <c r="D940" t="s">
-        <v>1742</v>
+        <v>1351</v>
       </c>
       <c r="E940" t="s">
-        <v>2382</v>
+        <v>2307</v>
       </c>
       <c r="F940" t="s">
-        <v>148</v>
+        <v>2094</v>
       </c>
       <c r="G940" t="s">
-        <v>2383</v>
+        <v>2306</v>
       </c>
       <c r="H940" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="I940" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="J940" s="12" t="s">
         <v>21</v>
@@ -38642,7 +38782,7 @@
     </row>
     <row r="941" spans="1:10">
       <c r="A941" t="s">
-        <v>148</v>
+        <v>2095</v>
       </c>
       <c r="B941" s="13" t="s">
         <v>184</v>
@@ -38651,30 +38791,27 @@
         <v>129</v>
       </c>
       <c r="D941" t="s">
-        <v>1742</v>
+        <v>2308</v>
       </c>
       <c r="E941" t="s">
-        <v>2380</v>
+        <v>2310</v>
       </c>
       <c r="F941" t="s">
-        <v>148</v>
+        <v>2095</v>
       </c>
       <c r="G941" t="s">
-        <v>2381</v>
+        <v>2309</v>
       </c>
       <c r="H941" t="s">
-        <v>135</v>
+        <v>2111</v>
       </c>
       <c r="I941" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J941" s="12" t="s">
-        <v>21</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="942" spans="1:10">
       <c r="A942" t="s">
-        <v>2070</v>
+        <v>2096</v>
       </c>
       <c r="B942" s="13" t="s">
         <v>184</v>
@@ -38683,22 +38820,22 @@
         <v>129</v>
       </c>
       <c r="D942" t="s">
-        <v>1742</v>
+        <v>2311</v>
       </c>
       <c r="E942" t="s">
-        <v>2341</v>
+        <v>2313</v>
       </c>
       <c r="F942" t="s">
-        <v>2070</v>
+        <v>2096</v>
       </c>
       <c r="G942" t="s">
-        <v>2340</v>
+        <v>2312</v>
       </c>
       <c r="H942" t="s">
-        <v>15</v>
+        <v>2111</v>
       </c>
       <c r="I942" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J942" s="12" t="s">
         <v>21</v>
@@ -38706,7 +38843,7 @@
     </row>
     <row r="943" spans="1:10">
       <c r="A943" t="s">
-        <v>2070</v>
+        <v>2097</v>
       </c>
       <c r="B943" s="13" t="s">
         <v>184</v>
@@ -38715,22 +38852,22 @@
         <v>129</v>
       </c>
       <c r="D943" t="s">
-        <v>1742</v>
+        <v>2318</v>
       </c>
       <c r="E943" t="s">
-        <v>2343</v>
+        <v>2315</v>
       </c>
       <c r="F943" t="s">
-        <v>2070</v>
+        <v>2097</v>
       </c>
       <c r="G943" t="s">
-        <v>2342</v>
+        <v>2314</v>
       </c>
       <c r="H943" t="s">
-        <v>15</v>
+        <v>2111</v>
       </c>
       <c r="I943" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J943" s="12" t="s">
         <v>21</v>
@@ -38738,7 +38875,7 @@
     </row>
     <row r="944" spans="1:10">
       <c r="A944" t="s">
-        <v>2070</v>
+        <v>2097</v>
       </c>
       <c r="B944" s="13" t="s">
         <v>184</v>
@@ -38747,22 +38884,22 @@
         <v>129</v>
       </c>
       <c r="D944" t="s">
-        <v>1742</v>
+        <v>2318</v>
       </c>
       <c r="E944" t="s">
-        <v>2344</v>
+        <v>2317</v>
       </c>
       <c r="F944" t="s">
-        <v>2070</v>
+        <v>2097</v>
       </c>
       <c r="G944" t="s">
-        <v>20</v>
+        <v>2316</v>
       </c>
       <c r="H944" t="s">
-        <v>15</v>
+        <v>2111</v>
       </c>
       <c r="I944" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J944" s="12" t="s">
         <v>21</v>
@@ -38770,7 +38907,7 @@
     </row>
     <row r="945" spans="1:10">
       <c r="A945" t="s">
-        <v>2070</v>
+        <v>2097</v>
       </c>
       <c r="B945" s="13" t="s">
         <v>184</v>
@@ -38779,22 +38916,22 @@
         <v>129</v>
       </c>
       <c r="D945" t="s">
-        <v>1742</v>
+        <v>2318</v>
       </c>
       <c r="E945" t="s">
-        <v>2346</v>
+        <v>2320</v>
       </c>
       <c r="F945" t="s">
-        <v>2070</v>
+        <v>2097</v>
       </c>
       <c r="G945" t="s">
-        <v>2345</v>
+        <v>2319</v>
       </c>
       <c r="H945" t="s">
-        <v>15</v>
+        <v>2111</v>
       </c>
       <c r="I945" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J945" s="12" t="s">
         <v>21</v>
@@ -38802,7 +38939,7 @@
     </row>
     <row r="946" spans="1:10">
       <c r="A946" t="s">
-        <v>2070</v>
+        <v>2097</v>
       </c>
       <c r="B946" s="13" t="s">
         <v>184</v>
@@ -38811,22 +38948,22 @@
         <v>129</v>
       </c>
       <c r="D946" t="s">
-        <v>1742</v>
+        <v>2318</v>
       </c>
       <c r="E946" t="s">
-        <v>2348</v>
+        <v>2322</v>
       </c>
       <c r="F946" t="s">
-        <v>2070</v>
+        <v>2097</v>
       </c>
       <c r="G946" t="s">
-        <v>2347</v>
+        <v>2321</v>
       </c>
       <c r="H946" t="s">
-        <v>15</v>
+        <v>2111</v>
       </c>
       <c r="I946" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J946" s="12" t="s">
         <v>21</v>
@@ -38834,7 +38971,7 @@
     </row>
     <row r="947" spans="1:10">
       <c r="A947" t="s">
-        <v>2098</v>
+        <v>2323</v>
       </c>
       <c r="B947" s="13" t="s">
         <v>184</v>
@@ -38843,19 +38980,19 @@
         <v>129</v>
       </c>
       <c r="D947" t="s">
-        <v>2354</v>
+        <v>2326</v>
       </c>
       <c r="E947" t="s">
-        <v>2350</v>
+        <v>2325</v>
       </c>
       <c r="F947" t="s">
-        <v>2098</v>
+        <v>2323</v>
       </c>
       <c r="G947" t="s">
-        <v>2349</v>
+        <v>2324</v>
       </c>
       <c r="H947" t="s">
-        <v>2111</v>
+        <v>15</v>
       </c>
       <c r="I947" t="s">
         <v>2406</v>
@@ -38866,7 +39003,7 @@
     </row>
     <row r="948" spans="1:10">
       <c r="A948" t="s">
-        <v>2099</v>
+        <v>148</v>
       </c>
       <c r="B948" s="13" t="s">
         <v>184</v>
@@ -38875,22 +39012,22 @@
         <v>129</v>
       </c>
       <c r="D948" t="s">
-        <v>2353</v>
+        <v>1742</v>
       </c>
       <c r="E948" t="s">
-        <v>2352</v>
+        <v>2327</v>
       </c>
       <c r="F948" t="s">
-        <v>2099</v>
+        <v>148</v>
       </c>
       <c r="G948" t="s">
-        <v>2351</v>
+        <v>20</v>
       </c>
       <c r="H948" t="s">
-        <v>2111</v>
+        <v>135</v>
       </c>
       <c r="I948" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="J948" s="12" t="s">
         <v>21</v>
@@ -38898,7 +39035,7 @@
     </row>
     <row r="949" spans="1:10">
       <c r="A949" t="s">
-        <v>2100</v>
+        <v>148</v>
       </c>
       <c r="B949" s="13" t="s">
         <v>184</v>
@@ -38907,22 +39044,22 @@
         <v>129</v>
       </c>
       <c r="D949" t="s">
-        <v>2355</v>
+        <v>1742</v>
       </c>
       <c r="E949" t="s">
-        <v>2365</v>
+        <v>2329</v>
       </c>
       <c r="F949" t="s">
-        <v>2100</v>
+        <v>148</v>
       </c>
       <c r="G949" t="s">
-        <v>2364</v>
+        <v>2328</v>
       </c>
       <c r="H949" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I949" t="s">
-        <v>2197</v>
+        <v>2405</v>
       </c>
       <c r="J949" s="12" t="s">
         <v>21</v>
@@ -38930,7 +39067,7 @@
     </row>
     <row r="950" spans="1:10">
       <c r="A950" t="s">
-        <v>2356</v>
+        <v>148</v>
       </c>
       <c r="B950" s="13" t="s">
         <v>184</v>
@@ -38939,22 +39076,22 @@
         <v>129</v>
       </c>
       <c r="D950" t="s">
-        <v>2357</v>
+        <v>1742</v>
       </c>
       <c r="E950" t="s">
-        <v>2367</v>
+        <v>2331</v>
       </c>
       <c r="F950" t="s">
-        <v>2356</v>
+        <v>148</v>
       </c>
       <c r="G950" t="s">
-        <v>2366</v>
+        <v>2330</v>
       </c>
       <c r="H950" t="s">
-        <v>2111</v>
+        <v>135</v>
       </c>
       <c r="I950" t="s">
-        <v>2197</v>
+        <v>2405</v>
       </c>
       <c r="J950" s="12" t="s">
         <v>21</v>
@@ -38962,7 +39099,7 @@
     </row>
     <row r="951" spans="1:10">
       <c r="A951" t="s">
-        <v>2101</v>
+        <v>148</v>
       </c>
       <c r="B951" s="13" t="s">
         <v>184</v>
@@ -38971,22 +39108,22 @@
         <v>129</v>
       </c>
       <c r="D951" t="s">
-        <v>2358</v>
+        <v>1742</v>
       </c>
       <c r="E951" t="s">
-        <v>2396</v>
+        <v>2332</v>
       </c>
       <c r="F951" t="s">
-        <v>2101</v>
+        <v>148</v>
       </c>
       <c r="G951" t="s">
-        <v>2397</v>
+        <v>558</v>
       </c>
       <c r="H951" t="s">
         <v>135</v>
       </c>
       <c r="I951" t="s">
-        <v>2197</v>
+        <v>2405</v>
       </c>
       <c r="J951" s="12" t="s">
         <v>21</v>
@@ -38994,7 +39131,7 @@
     </row>
     <row r="952" spans="1:10">
       <c r="A952" t="s">
-        <v>2102</v>
+        <v>148</v>
       </c>
       <c r="B952" s="13" t="s">
         <v>184</v>
@@ -39003,22 +39140,22 @@
         <v>129</v>
       </c>
       <c r="D952" t="s">
-        <v>1184</v>
+        <v>1742</v>
       </c>
       <c r="E952" t="s">
-        <v>2369</v>
+        <v>2334</v>
       </c>
       <c r="F952" t="s">
-        <v>2102</v>
+        <v>148</v>
       </c>
       <c r="G952" t="s">
-        <v>2368</v>
+        <v>2333</v>
       </c>
       <c r="H952" t="s">
         <v>135</v>
       </c>
       <c r="I952" t="s">
-        <v>2197</v>
+        <v>2405</v>
       </c>
       <c r="J952" s="12" t="s">
         <v>21</v>
@@ -39026,7 +39163,7 @@
     </row>
     <row r="953" spans="1:10">
       <c r="A953" t="s">
-        <v>2104</v>
+        <v>148</v>
       </c>
       <c r="B953" s="13" t="s">
         <v>184</v>
@@ -39035,22 +39172,22 @@
         <v>129</v>
       </c>
       <c r="D953" t="s">
-        <v>2360</v>
+        <v>1742</v>
       </c>
       <c r="E953" t="s">
-        <v>2398</v>
+        <v>2386</v>
       </c>
       <c r="F953" t="s">
-        <v>2104</v>
+        <v>148</v>
       </c>
       <c r="G953" t="s">
-        <v>2399</v>
+        <v>2387</v>
       </c>
       <c r="H953" t="s">
-        <v>2148</v>
+        <v>135</v>
       </c>
       <c r="I953" t="s">
-        <v>2197</v>
+        <v>2405</v>
       </c>
       <c r="J953" s="12" t="s">
         <v>21</v>
@@ -39058,7 +39195,7 @@
     </row>
     <row r="954" spans="1:10">
       <c r="A954" t="s">
-        <v>2105</v>
+        <v>148</v>
       </c>
       <c r="B954" s="13" t="s">
         <v>184</v>
@@ -39067,22 +39204,22 @@
         <v>129</v>
       </c>
       <c r="D954" t="s">
-        <v>2361</v>
+        <v>1742</v>
       </c>
       <c r="E954" t="s">
-        <v>2371</v>
+        <v>2336</v>
       </c>
       <c r="F954" t="s">
-        <v>2105</v>
+        <v>148</v>
       </c>
       <c r="G954" t="s">
-        <v>2370</v>
+        <v>2335</v>
       </c>
       <c r="H954" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I954" t="s">
-        <v>2197</v>
+        <v>2405</v>
       </c>
       <c r="J954" s="12" t="s">
         <v>21</v>
@@ -39090,7 +39227,7 @@
     </row>
     <row r="955" spans="1:10">
       <c r="A955" t="s">
-        <v>2106</v>
+        <v>148</v>
       </c>
       <c r="B955" s="13" t="s">
         <v>184</v>
@@ -39099,22 +39236,22 @@
         <v>129</v>
       </c>
       <c r="D955" t="s">
-        <v>73</v>
+        <v>1742</v>
       </c>
       <c r="E955" t="s">
-        <v>2373</v>
+        <v>2384</v>
       </c>
       <c r="F955" t="s">
-        <v>2106</v>
+        <v>148</v>
       </c>
       <c r="G955" t="s">
-        <v>2372</v>
+        <v>2385</v>
       </c>
       <c r="H955" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I955" t="s">
-        <v>2197</v>
+        <v>2405</v>
       </c>
       <c r="J955" s="12" t="s">
         <v>21</v>
@@ -39122,7 +39259,7 @@
     </row>
     <row r="956" spans="1:10">
       <c r="A956" t="s">
-        <v>2100</v>
+        <v>148</v>
       </c>
       <c r="B956" s="13" t="s">
         <v>184</v>
@@ -39131,22 +39268,22 @@
         <v>129</v>
       </c>
       <c r="D956" t="s">
-        <v>2355</v>
+        <v>1742</v>
       </c>
       <c r="E956" t="s">
-        <v>2400</v>
+        <v>2338</v>
       </c>
       <c r="F956" t="s">
-        <v>2100</v>
+        <v>148</v>
       </c>
       <c r="G956" t="s">
-        <v>2401</v>
+        <v>2337</v>
       </c>
       <c r="H956" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I956" t="s">
-        <v>2197</v>
+        <v>2405</v>
       </c>
       <c r="J956" s="12" t="s">
         <v>21</v>
@@ -39154,7 +39291,7 @@
     </row>
     <row r="957" spans="1:10">
       <c r="A957" t="s">
-        <v>2103</v>
+        <v>148</v>
       </c>
       <c r="B957" s="13" t="s">
         <v>184</v>
@@ -39163,22 +39300,22 @@
         <v>129</v>
       </c>
       <c r="D957" t="s">
-        <v>2359</v>
+        <v>1742</v>
       </c>
       <c r="E957" t="s">
-        <v>2402</v>
+        <v>2339</v>
       </c>
       <c r="F957" t="s">
-        <v>2103</v>
+        <v>148</v>
       </c>
       <c r="G957" t="s">
-        <v>2403</v>
+        <v>20</v>
       </c>
       <c r="H957" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I957" t="s">
-        <v>2197</v>
+        <v>2405</v>
       </c>
       <c r="J957" s="12" t="s">
         <v>21</v>
@@ -39186,7 +39323,7 @@
     </row>
     <row r="958" spans="1:10">
       <c r="A958" t="s">
-        <v>2107</v>
+        <v>148</v>
       </c>
       <c r="B958" s="13" t="s">
         <v>184</v>
@@ -39195,22 +39332,22 @@
         <v>129</v>
       </c>
       <c r="D958" t="s">
-        <v>2362</v>
+        <v>1742</v>
       </c>
       <c r="E958" t="s">
-        <v>2375</v>
+        <v>2382</v>
       </c>
       <c r="F958" t="s">
-        <v>2107</v>
+        <v>148</v>
       </c>
       <c r="G958" t="s">
-        <v>2374</v>
+        <v>2383</v>
       </c>
       <c r="H958" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I958" t="s">
-        <v>2197</v>
+        <v>2405</v>
       </c>
       <c r="J958" s="12" t="s">
         <v>21</v>
@@ -39218,7 +39355,7 @@
     </row>
     <row r="959" spans="1:10">
       <c r="A959" t="s">
-        <v>2108</v>
+        <v>148</v>
       </c>
       <c r="B959" s="13" t="s">
         <v>184</v>
@@ -39227,22 +39364,22 @@
         <v>129</v>
       </c>
       <c r="D959" t="s">
-        <v>957</v>
+        <v>1742</v>
       </c>
       <c r="E959" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="F959" t="s">
-        <v>2108</v>
+        <v>148</v>
       </c>
       <c r="G959" t="s">
-        <v>2376</v>
+        <v>2381</v>
       </c>
       <c r="H959" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I959" t="s">
-        <v>2197</v>
+        <v>2405</v>
       </c>
       <c r="J959" s="12" t="s">
         <v>21</v>
@@ -39250,7 +39387,7 @@
     </row>
     <row r="960" spans="1:10">
       <c r="A960" t="s">
-        <v>2109</v>
+        <v>2070</v>
       </c>
       <c r="B960" s="13" t="s">
         <v>184</v>
@@ -39259,24 +39396,600 @@
         <v>129</v>
       </c>
       <c r="D960" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E960" t="s">
+        <v>2341</v>
+      </c>
+      <c r="F960" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G960" t="s">
+        <v>2340</v>
+      </c>
+      <c r="H960" t="s">
+        <v>15</v>
+      </c>
+      <c r="I960" t="s">
+        <v>2405</v>
+      </c>
+      <c r="J960" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="961" spans="1:10">
+      <c r="A961" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B961" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C961" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D961" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E961" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F961" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G961" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H961" t="s">
+        <v>15</v>
+      </c>
+      <c r="I961" t="s">
+        <v>2405</v>
+      </c>
+      <c r="J961" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="962" spans="1:10">
+      <c r="A962" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B962" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C962" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E962" t="s">
+        <v>2344</v>
+      </c>
+      <c r="F962" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G962" t="s">
+        <v>20</v>
+      </c>
+      <c r="H962" t="s">
+        <v>15</v>
+      </c>
+      <c r="I962" t="s">
+        <v>2405</v>
+      </c>
+      <c r="J962" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="963" spans="1:10">
+      <c r="A963" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B963" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C963" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E963" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F963" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G963" t="s">
+        <v>2345</v>
+      </c>
+      <c r="H963" t="s">
+        <v>15</v>
+      </c>
+      <c r="I963" t="s">
+        <v>2405</v>
+      </c>
+      <c r="J963" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="964" spans="1:10">
+      <c r="A964" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B964" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C964" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E964" t="s">
+        <v>2348</v>
+      </c>
+      <c r="F964" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G964" t="s">
+        <v>2347</v>
+      </c>
+      <c r="H964" t="s">
+        <v>15</v>
+      </c>
+      <c r="I964" t="s">
+        <v>2405</v>
+      </c>
+      <c r="J964" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="965" spans="1:10">
+      <c r="A965" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B965" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C965" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D965" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E965" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F965" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G965" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H965" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I965" t="s">
+        <v>2406</v>
+      </c>
+      <c r="J965" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="966" spans="1:10">
+      <c r="A966" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B966" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C966" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D966" t="s">
+        <v>2353</v>
+      </c>
+      <c r="E966" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F966" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G966" t="s">
+        <v>2351</v>
+      </c>
+      <c r="H966" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I966" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J966" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="967" spans="1:10">
+      <c r="A967" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B967" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C967" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D967" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E967" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F967" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G967" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H967" t="s">
+        <v>15</v>
+      </c>
+      <c r="I967" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J967" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="968" spans="1:10">
+      <c r="A968" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B968" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C968" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D968" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E968" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F968" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G968" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H968" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I968" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J968" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="969" spans="1:10">
+      <c r="A969" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B969" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C969" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D969" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E969" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F969" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G969" t="s">
+        <v>2397</v>
+      </c>
+      <c r="H969" t="s">
+        <v>135</v>
+      </c>
+      <c r="I969" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J969" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="970" spans="1:10">
+      <c r="A970" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B970" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C970" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E970" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F970" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G970" t="s">
+        <v>2368</v>
+      </c>
+      <c r="H970" t="s">
+        <v>135</v>
+      </c>
+      <c r="I970" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J970" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="971" spans="1:10">
+      <c r="A971" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B971" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C971" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D971" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E971" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F971" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G971" t="s">
+        <v>2399</v>
+      </c>
+      <c r="H971" t="s">
+        <v>2148</v>
+      </c>
+      <c r="I971" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J971" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="972" spans="1:10">
+      <c r="A972" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B972" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C972" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D972" t="s">
+        <v>2361</v>
+      </c>
+      <c r="E972" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F972" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G972" t="s">
+        <v>2370</v>
+      </c>
+      <c r="H972" t="s">
+        <v>15</v>
+      </c>
+      <c r="I972" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J972" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="973" spans="1:10">
+      <c r="A973" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B973" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C973" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D973" t="s">
+        <v>73</v>
+      </c>
+      <c r="E973" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F973" t="s">
+        <v>2106</v>
+      </c>
+      <c r="G973" t="s">
+        <v>2372</v>
+      </c>
+      <c r="H973" t="s">
+        <v>15</v>
+      </c>
+      <c r="I973" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J973" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="974" spans="1:10">
+      <c r="A974" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B974" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C974" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D974" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E974" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F974" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G974" t="s">
+        <v>2401</v>
+      </c>
+      <c r="H974" t="s">
+        <v>15</v>
+      </c>
+      <c r="I974" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J974" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="975" spans="1:10">
+      <c r="A975" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B975" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C975" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D975" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E975" t="s">
+        <v>2402</v>
+      </c>
+      <c r="F975" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G975" t="s">
+        <v>2403</v>
+      </c>
+      <c r="H975" t="s">
+        <v>15</v>
+      </c>
+      <c r="I975" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J975" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="976" spans="1:10">
+      <c r="A976" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B976" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C976" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D976" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E976" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F976" t="s">
+        <v>2107</v>
+      </c>
+      <c r="G976" t="s">
+        <v>2374</v>
+      </c>
+      <c r="H976" t="s">
+        <v>15</v>
+      </c>
+      <c r="I976" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J976" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="977" spans="1:10">
+      <c r="A977" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B977" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C977" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D977" t="s">
+        <v>957</v>
+      </c>
+      <c r="E977" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F977" t="s">
+        <v>2108</v>
+      </c>
+      <c r="G977" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H977" t="s">
+        <v>15</v>
+      </c>
+      <c r="I977" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J977" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="978" spans="1:10">
+      <c r="A978" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B978" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C978" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D978" t="s">
         <v>2363</v>
       </c>
-      <c r="E960" t="s">
+      <c r="E978" t="s">
         <v>2379</v>
       </c>
-      <c r="F960" t="s">
+      <c r="F978" t="s">
         <v>2109</v>
       </c>
-      <c r="G960" t="s">
+      <c r="G978" t="s">
         <v>2378</v>
       </c>
-      <c r="H960" t="s">
-        <v>15</v>
-      </c>
-      <c r="I960" t="s">
+      <c r="H978" t="s">
+        <v>15</v>
+      </c>
+      <c r="I978" t="s">
         <v>2197</v>
       </c>
-      <c r="J960" s="12" t="s">
+      <c r="J978" s="12" t="s">
         <v>21</v>
       </c>
     </row>
